--- a/results/10-2024/beta/contributions-10-2024.xlsx
+++ b/results/10-2024/beta/contributions-10-2024.xlsx
@@ -773,10 +773,10 @@
     <t xml:space="preserve">2024 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2024 Q4</t>
+  </si>
+  <si>
     <t xml:space="preserve">projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024 Q4</t>
   </si>
   <si>
     <t xml:space="preserve">2025 Q1</t>
@@ -21575,7 +21575,7 @@
         <v>1.85813528875773</v>
       </c>
       <c r="E203" t="n">
-        <v>2.00684683069203</v>
+        <v>12.9390017905476</v>
       </c>
       <c r="F203" t="n">
         <v>-0.00488967159523179</v>
@@ -21623,13 +21623,13 @@
         <v>0</v>
       </c>
       <c r="U203" t="n">
-        <v>0.415341792524715</v>
+        <v>0</v>
       </c>
       <c r="V203" t="n">
         <v>0</v>
       </c>
       <c r="W203" t="n">
-        <v>0.165790092547091</v>
+        <v>0</v>
       </c>
       <c r="X203" t="n">
         <v>0.0000119224275785257</v>
@@ -21641,25 +21641,25 @@
         <v>-0.203888741336256</v>
       </c>
       <c r="AA203" t="n">
-        <v>3.86009244785454</v>
+        <v>14.7922474077101</v>
       </c>
       <c r="AB203" t="n">
-        <v>-2.63624167437975</v>
+        <v>-13.5683966342353</v>
       </c>
       <c r="AC203" t="n">
         <v>0.316991722524596</v>
       </c>
       <c r="AD203" t="n">
-        <v>12.7168010587855</v>
+        <v>12.1356691737137</v>
       </c>
       <c r="AE203" t="n">
-        <v>13.0337927813101</v>
+        <v>12.4526608962383</v>
       </c>
       <c r="AF203" t="n">
-        <v>14.2576435547849</v>
+        <v>13.6765116697131</v>
       </c>
       <c r="AG203" t="n">
-        <v>3.96955566055697</v>
+        <v>3.82427268928902</v>
       </c>
     </row>
     <row r="204">
@@ -21676,7 +21676,7 @@
         <v>-1.14531348731808</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.62736705167179</v>
+        <v>-11.5793528519049</v>
       </c>
       <c r="F204" t="n">
         <v>0.0572813489514212</v>
@@ -21724,13 +21724,13 @@
         <v>0</v>
       </c>
       <c r="U204" t="n">
-        <v>0.029061114821638</v>
+        <v>0.164150830075549</v>
       </c>
       <c r="V204" t="n">
         <v>0</v>
       </c>
       <c r="W204" t="n">
-        <v>0.151242269275742</v>
+        <v>0.180705609526233</v>
       </c>
       <c r="X204" t="n">
         <v>-0.0000514166403564609</v>
@@ -21742,25 +21742,25 @@
         <v>-0.0317076522897919</v>
       </c>
       <c r="AA204" t="n">
-        <v>-1.71539919003845</v>
+        <v>-12.6673849902715</v>
       </c>
       <c r="AB204" t="n">
-        <v>0.0786387141545108</v>
+        <v>11.0306245143876</v>
       </c>
       <c r="AC204" t="n">
         <v>0.459952039922273</v>
       </c>
       <c r="AD204" t="n">
-        <v>4.01319913896492</v>
+        <v>4.17775219446932</v>
       </c>
       <c r="AE204" t="n">
-        <v>4.47315117888719</v>
+        <v>4.63770423439159</v>
       </c>
       <c r="AF204" t="n">
-        <v>2.83639070300326</v>
+        <v>3.00094375850766</v>
       </c>
       <c r="AG204" t="n">
-        <v>4.51392628200157</v>
+        <v>4.40978157460972</v>
       </c>
     </row>
     <row r="205">
@@ -21825,13 +21825,13 @@
         <v>0</v>
       </c>
       <c r="U205" t="n">
-        <v>0.0416773742236032</v>
+        <v>0.0445521294941909</v>
       </c>
       <c r="V205" t="n">
         <v>0</v>
       </c>
       <c r="W205" t="n">
-        <v>0.129902533268478</v>
+        <v>0.139579484933283</v>
       </c>
       <c r="X205" t="n">
         <v>-0.000031301407033002</v>
@@ -21852,16 +21852,16 @@
         <v>-0.540762257703398</v>
       </c>
       <c r="AD205" t="n">
-        <v>-2.2247361400885</v>
+        <v>-2.21218443315311</v>
       </c>
       <c r="AE205" t="n">
-        <v>-2.7654983977919</v>
+        <v>-2.75294669085651</v>
       </c>
       <c r="AF205" t="n">
-        <v>-3.40644010309286</v>
+        <v>-3.39388839615746</v>
       </c>
       <c r="AG205" t="n">
-        <v>3.53566533243396</v>
+        <v>3.43465855177596</v>
       </c>
     </row>
     <row r="206">
@@ -21926,13 +21926,13 @@
         <v>0</v>
       </c>
       <c r="U206" t="n">
-        <v>-0.124133157555872</v>
+        <v>0.0262367450360568</v>
       </c>
       <c r="V206" t="n">
         <v>0</v>
       </c>
       <c r="W206" t="n">
-        <v>0.115563700311161</v>
+        <v>0.125791451774493</v>
       </c>
       <c r="X206" t="n">
         <v>0.00164391732406788</v>
@@ -21953,16 +21953,16 @@
         <v>-0.205946254819345</v>
       </c>
       <c r="AD206" t="n">
-        <v>7.50215515081061</v>
+        <v>7.66275280486587</v>
       </c>
       <c r="AE206" t="n">
-        <v>7.29620889599126</v>
+        <v>7.45680655004652</v>
       </c>
       <c r="AF206" t="n">
-        <v>7.92171788753923</v>
+        <v>8.08231554159449</v>
       </c>
       <c r="AG206" t="n">
-        <v>5.40232801055864</v>
+        <v>5.34147064341445</v>
       </c>
     </row>
     <row r="207">
@@ -22027,13 +22027,13 @@
         <v>0.0415183866104618</v>
       </c>
       <c r="U207" t="n">
-        <v>-0.0409931882009773</v>
+        <v>-0.0381416975003379</v>
       </c>
       <c r="V207" t="n">
         <v>0.119830088665562</v>
       </c>
       <c r="W207" t="n">
-        <v>0.060666345938909</v>
+        <v>0.110759529482141</v>
       </c>
       <c r="X207" t="n">
         <v>0.0066359484619305</v>
@@ -22054,16 +22054,16 @@
         <v>-0.235624577386329</v>
       </c>
       <c r="AD207" t="n">
-        <v>-0.857258843770825</v>
+        <v>-0.804314169526954</v>
       </c>
       <c r="AE207" t="n">
-        <v>-1.09288342115715</v>
+        <v>-1.03993874691328</v>
       </c>
       <c r="AF207" t="n">
-        <v>-2.2146366856996</v>
+        <v>-2.16169201145573</v>
       </c>
       <c r="AG207" t="n">
-        <v>1.28425795043751</v>
+        <v>1.38191972312224</v>
       </c>
     </row>
     <row r="208">
@@ -22128,13 +22128,13 @@
         <v>0.182728581259162</v>
       </c>
       <c r="U208" t="n">
-        <v>0.00779178466965291</v>
+        <v>0.0103368360091727</v>
       </c>
       <c r="V208" t="n">
         <v>0.13443770463879</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0275547214441785</v>
+        <v>0.0596565335020616</v>
       </c>
       <c r="X208" t="n">
         <v>-0.00114911661912576</v>
@@ -22155,16 +22155,16 @@
         <v>-0.335068156237039</v>
       </c>
       <c r="AD208" t="n">
-        <v>-1.84570637548864</v>
+        <v>-1.81105951209124</v>
       </c>
       <c r="AE208" t="n">
-        <v>-2.18077453172568</v>
+        <v>-2.14612766832828</v>
       </c>
       <c r="AF208" t="n">
-        <v>-2.79089751164301</v>
+        <v>-2.75625064824561</v>
       </c>
       <c r="AG208" t="n">
-        <v>-0.122564103224059</v>
+        <v>-0.0573788785660773</v>
       </c>
     </row>
     <row r="209">
@@ -22229,13 +22229,13 @@
         <v>0.0464628048628457</v>
       </c>
       <c r="U209" t="n">
-        <v>0.0822114710414379</v>
+        <v>0.0850934821091665</v>
       </c>
       <c r="V209" t="n">
         <v>0.142993982143524</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0244138749784462</v>
+        <v>0.0252195512580711</v>
       </c>
       <c r="X209" t="n">
         <v>-0.000549401375182779</v>
@@ -22256,16 +22256,16 @@
         <v>-0.235680997587606</v>
       </c>
       <c r="AD209" t="n">
-        <v>-2.14306343961965</v>
+        <v>-2.1393757522723</v>
       </c>
       <c r="AE209" t="n">
-        <v>-2.37874443720726</v>
+        <v>-2.37505674985991</v>
       </c>
       <c r="AF209" t="n">
-        <v>-2.77852158061567</v>
+        <v>-2.77483389326831</v>
       </c>
       <c r="AG209" t="n">
-        <v>0.0344155273952378</v>
+        <v>0.09738474715621</v>
       </c>
     </row>
     <row r="210">
@@ -22330,13 +22330,13 @@
         <v>-0.0344698538860322</v>
       </c>
       <c r="U210" t="n">
-        <v>0.0516228745243819</v>
+        <v>0.0547355444684205</v>
       </c>
       <c r="V210" t="n">
         <v>0.122975235565992</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0139185489227645</v>
+        <v>0.0220546429122725</v>
       </c>
       <c r="X210" t="n">
         <v>-0.000624645089253306</v>
@@ -22357,16 +22357,16 @@
         <v>-0.838535595708545</v>
       </c>
       <c r="AD210" t="n">
-        <v>-1.93955775469731</v>
+        <v>-1.92830899076376</v>
       </c>
       <c r="AE210" t="n">
-        <v>-2.77809335040585</v>
+        <v>-2.76684458647231</v>
       </c>
       <c r="AF210" t="n">
-        <v>-3.73623841312934</v>
+        <v>-3.7249896491958</v>
       </c>
       <c r="AG210" t="n">
-        <v>-2.8800735477719</v>
+        <v>-2.85444155054136</v>
       </c>
     </row>
     <row r="211">
@@ -22431,13 +22431,13 @@
         <v>0.024340152317448</v>
       </c>
       <c r="U211" t="n">
-        <v>0.0307092463431857</v>
+        <v>0.0337290372707466</v>
       </c>
       <c r="V211" t="n">
         <v>0.0825747239634689</v>
       </c>
       <c r="W211" t="n">
-        <v>-0.0153664935740538</v>
+        <v>0.0138626963285926</v>
       </c>
       <c r="X211" t="n">
         <v>-0.000755600784996258</v>
@@ -22458,16 +22458,16 @@
         <v>-1.14502047918698</v>
       </c>
       <c r="AD211" t="n">
-        <v>-2.75564628811077</v>
+        <v>-2.72339730728056</v>
       </c>
       <c r="AE211" t="n">
-        <v>-3.90066676729774</v>
+        <v>-3.86841778646754</v>
       </c>
       <c r="AF211" t="n">
-        <v>-4.53341496907379</v>
+        <v>-4.50116598824358</v>
       </c>
       <c r="AG211" t="n">
-        <v>-3.45976811861545</v>
+        <v>-3.43931004473832</v>
       </c>
     </row>
     <row r="212">
@@ -22532,7 +22532,7 @@
         <v>0.0248137535214799</v>
       </c>
       <c r="U212" t="n">
-        <v>-0.0624331921386667</v>
+        <v>-0.010467652720747</v>
       </c>
       <c r="V212" t="n">
         <v>0.0499668903684913</v>
@@ -22559,16 +22559,16 @@
         <v>-0.630190291704857</v>
       </c>
       <c r="AD212" t="n">
-        <v>-1.54920351704273</v>
+        <v>-1.49723797762481</v>
       </c>
       <c r="AE212" t="n">
-        <v>-2.17939380874759</v>
+        <v>-2.12742826932967</v>
       </c>
       <c r="AF212" t="n">
-        <v>-2.26973407577942</v>
+        <v>-2.2177685363615</v>
       </c>
       <c r="AG212" t="n">
-        <v>-3.32947725964955</v>
+        <v>-3.3046895167673</v>
       </c>
     </row>
     <row r="213">
@@ -22633,7 +22633,7 @@
         <v>-0.0350063168225057</v>
       </c>
       <c r="U213" t="n">
-        <v>-0.0630238851751175</v>
+        <v>-0.0619177431531281</v>
       </c>
       <c r="V213" t="n">
         <v>-0.0339268892289191</v>
@@ -22660,16 +22660,16 @@
         <v>-0.423615750014705</v>
       </c>
       <c r="AD213" t="n">
-        <v>-0.321380771135182</v>
+        <v>-0.320274629113193</v>
       </c>
       <c r="AE213" t="n">
-        <v>-0.744996521149888</v>
+        <v>-0.743890379127898</v>
       </c>
       <c r="AF213" t="n">
-        <v>-0.182752168726197</v>
+        <v>-0.181646026704207</v>
       </c>
       <c r="AG213" t="n">
-        <v>-2.68053490667719</v>
+        <v>-2.65639255012627</v>
       </c>
     </row>
     <row r="214">
@@ -22734,7 +22734,7 @@
         <v>-0.0338920949621624</v>
       </c>
       <c r="U214" t="n">
-        <v>-0.0461046940579135</v>
+        <v>-0.0450332772740203</v>
       </c>
       <c r="V214" t="n">
         <v>-0.0862118945792134</v>
@@ -22761,16 +22761,16 @@
         <v>0.615177691227164</v>
       </c>
       <c r="AD214" t="n">
-        <v>-1.08382455549562</v>
+        <v>-1.08275313871172</v>
       </c>
       <c r="AE214" t="n">
-        <v>-0.468646864268452</v>
+        <v>-0.467575447484558</v>
       </c>
       <c r="AF214" t="n">
-        <v>0.0380041301269896</v>
+        <v>0.0390755469108828</v>
       </c>
       <c r="AG214" t="n">
-        <v>-1.7369742708631</v>
+        <v>-1.7153762510996</v>
       </c>
     </row>
     <row r="215">
@@ -22835,7 +22835,7 @@
         <v>0.000640298803311623</v>
       </c>
       <c r="U215" t="n">
-        <v>-0.0403329348358072</v>
+        <v>-0.0276163403257201</v>
       </c>
       <c r="V215" t="n">
         <v>-0.0927069188247143</v>
@@ -22862,16 +22862,16 @@
         <v>0.544935118379086</v>
       </c>
       <c r="AD215" t="n">
-        <v>-1.23773879893647</v>
+        <v>-1.22502220442638</v>
       </c>
       <c r="AE215" t="n">
-        <v>-0.692803680557386</v>
+        <v>-0.680087086047299</v>
       </c>
       <c r="AF215" t="n">
-        <v>-0.543401962502599</v>
+        <v>-0.530685367992512</v>
       </c>
       <c r="AG215" t="n">
-        <v>-0.739471019220305</v>
+        <v>-0.722756096036832</v>
       </c>
     </row>
     <row r="216">
@@ -22936,7 +22936,7 @@
         <v>0.00071707800293197</v>
       </c>
       <c r="U216" t="n">
-        <v>-0.0255380273358585</v>
+        <v>-0.0131325479427846</v>
       </c>
       <c r="V216" t="n">
         <v>-0.0920642374386049</v>
@@ -22963,16 +22963,16 @@
         <v>0.218984373570941</v>
       </c>
       <c r="AD216" t="n">
-        <v>-0.685992878183439</v>
+        <v>-0.673587398790365</v>
       </c>
       <c r="AE216" t="n">
-        <v>-0.467008504612498</v>
+        <v>-0.454603025219424</v>
       </c>
       <c r="AF216" t="n">
-        <v>0.142618999048461</v>
+        <v>0.155024478441534</v>
       </c>
       <c r="AG216" t="n">
-        <v>-0.136382750513336</v>
+        <v>-0.129557842336074</v>
       </c>
     </row>
     <row r="217">
@@ -23037,7 +23037,7 @@
         <v>-0.00531320653011091</v>
       </c>
       <c r="U217" t="n">
-        <v>-0.0254750818948657</v>
+        <v>-0.0135472375507928</v>
       </c>
       <c r="V217" t="n">
         <v>-0.0931505497863472</v>
@@ -23064,16 +23064,16 @@
         <v>0.00783501589425306</v>
       </c>
       <c r="AD217" t="n">
-        <v>-0.677382331407894</v>
+        <v>-0.665454487063821</v>
       </c>
       <c r="AE217" t="n">
-        <v>-0.669547315513641</v>
+        <v>-0.657619471169568</v>
       </c>
       <c r="AF217" t="n">
-        <v>-0.402654306162664</v>
+        <v>-0.390726461818591</v>
       </c>
       <c r="AG217" t="n">
-        <v>-0.191358284872453</v>
+        <v>-0.18182795111467</v>
       </c>
     </row>
     <row r="218">
@@ -23138,7 +23138,7 @@
         <v>-0.00610661652048483</v>
       </c>
       <c r="U218" t="n">
-        <v>-0.0359789155547907</v>
+        <v>-0.0241454719256962</v>
       </c>
       <c r="V218" t="n">
         <v>-0.0608695565337825</v>
@@ -23165,16 +23165,16 @@
         <v>0.602005743925715</v>
       </c>
       <c r="AD218" t="n">
-        <v>-0.521793274854476</v>
+        <v>-0.509959831225382</v>
       </c>
       <c r="AE218" t="n">
-        <v>0.0802124690712391</v>
+        <v>0.0920459127003337</v>
       </c>
       <c r="AF218" t="n">
-        <v>0.0316130233292466</v>
+        <v>0.0434464669583412</v>
       </c>
       <c r="AG218" t="n">
-        <v>-0.192956061571888</v>
+        <v>-0.180735221102806</v>
       </c>
     </row>
     <row r="219">
@@ -23239,7 +23239,7 @@
         <v>-0.0158823846918232</v>
       </c>
       <c r="U219" t="n">
-        <v>-0.0341818927161563</v>
+        <v>-0.0226847108754202</v>
       </c>
       <c r="V219" t="n">
         <v>-0.0478764754681005</v>
@@ -23266,16 +23266,16 @@
         <v>0.450934968794792</v>
       </c>
       <c r="AD219" t="n">
-        <v>-0.501240345217913</v>
+        <v>-0.489743163377176</v>
       </c>
       <c r="AE219" t="n">
-        <v>-0.0503053764231209</v>
+        <v>-0.0388081945823848</v>
       </c>
       <c r="AF219" t="n">
-        <v>0.114610532695747</v>
+        <v>0.126107714536483</v>
       </c>
       <c r="AG219" t="n">
-        <v>-0.0284529377723018</v>
+        <v>-0.0165369504705569</v>
       </c>
     </row>
     <row r="220">
@@ -23283,201 +23283,201 @@
         <v>252</v>
       </c>
       <c r="B220" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.306607594404662</v>
+        <v>0.467573867495497</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.00113704446853546</v>
+        <v>0.218428971776907</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.0116292797802675</v>
+        <v>-0.0133112440839578</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.0648365591078948</v>
+        <v>0.0238761071857274</v>
       </c>
       <c r="H220" t="n">
-        <v>0.270467644154704</v>
+        <v>0.267458455199754</v>
       </c>
       <c r="I220" t="n">
-        <v>-0.0461610654826972</v>
+        <v>-0.0521226750119341</v>
       </c>
       <c r="J220" t="n">
-        <v>-0.0532807075432129</v>
+        <v>-0.0532038642008015</v>
       </c>
       <c r="K220" t="n">
-        <v>-0.0886144633854169</v>
+        <v>-0.0886535366480534</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.0107744520771447</v>
+        <v>-0.0107450977989587</v>
       </c>
       <c r="M220" t="n">
-        <v>0.168696169878846</v>
+        <v>0.198280978825438</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0369279425189495</v>
+        <v>0.0247260510021219</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
       </c>
       <c r="P220" t="n">
-        <v>-0.096259405586685</v>
+        <v>-0.096271924117175</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.0355247886467458</v>
+        <v>-0.000321387780521931</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.0285426723150684</v>
+        <v>0.00783343367589673</v>
       </c>
       <c r="S220" t="n">
-        <v>-0.292096073082582</v>
+        <v>-0.292299659391171</v>
       </c>
       <c r="T220" t="n">
-        <v>-0.0640284141043113</v>
+        <v>-0.0640343791044717</v>
       </c>
       <c r="U220" t="n">
-        <v>-0.0326319849722312</v>
+        <v>-0.0214494617073235</v>
       </c>
       <c r="V220" t="n">
-        <v>-0.0421810519908639</v>
+        <v>-0.0421853173446674</v>
       </c>
       <c r="W220" t="n">
-        <v>-0.053495616271837</v>
+        <v>-0.0535010837968142</v>
       </c>
       <c r="X220" t="n">
-        <v>-0.000514605505719246</v>
+        <v>-0.0000371337162574648</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.17016423520857</v>
+        <v>0.205435554781985</v>
       </c>
       <c r="Z220" t="n">
-        <v>0.0181226428502157</v>
+        <v>0.0232792983305474</v>
       </c>
       <c r="AA220" t="n">
-        <v>-0.319373918653465</v>
+        <v>0.672691595188446</v>
       </c>
       <c r="AB220" t="n">
-        <v>-0.0520702348590918</v>
+        <v>-0.181241620507222</v>
       </c>
       <c r="AC220" t="n">
-        <v>0.0716369556662322</v>
+        <v>0.0627332815400061</v>
       </c>
       <c r="AD220" t="n">
-        <v>-0.180314044725971</v>
+        <v>-0.110545030342413</v>
       </c>
       <c r="AE220" t="n">
-        <v>-0.108677089059739</v>
+        <v>-0.0478117488024066</v>
       </c>
       <c r="AF220" t="n">
-        <v>-0.480121242572296</v>
+        <v>0.443638225878817</v>
       </c>
       <c r="AG220" t="n">
-        <v>-0.184137998177491</v>
+        <v>0.0556164863887638</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>253</v>
+      </c>
+      <c r="B221" t="s">
         <v>254</v>
       </c>
-      <c r="B221" t="s">
-        <v>253</v>
-      </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.0305395470598491</v>
+        <v>-0.031391585660534</v>
       </c>
       <c r="E221" t="n">
-        <v>0.00364815306155286</v>
+        <v>0.00347244920644307</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0104897375508894</v>
+        <v>0.0104829751023772</v>
       </c>
       <c r="G221" t="n">
-        <v>-0.0631311244774335</v>
+        <v>-0.063320733083605</v>
       </c>
       <c r="H221" t="n">
-        <v>0.251991122607409</v>
+        <v>0.24768569587923</v>
       </c>
       <c r="I221" t="n">
-        <v>-0.00827932479970928</v>
+        <v>-0.0288627646831463</v>
       </c>
       <c r="J221" t="n">
-        <v>-0.0475174598729144</v>
+        <v>-0.0474868333190326</v>
       </c>
       <c r="K221" t="n">
-        <v>-0.127534574152388</v>
+        <v>-0.127452398628347</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0122995997306585</v>
+        <v>0.0122916704594633</v>
       </c>
       <c r="M221" t="n">
-        <v>0.138053311751851</v>
+        <v>0.167741986743453</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0345924825707389</v>
+        <v>0.0346927934960384</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
       </c>
       <c r="P221" t="n">
-        <v>-0.0957392140348512</v>
+        <v>-0.0956775181464531</v>
       </c>
       <c r="Q221" t="n">
-        <v>-0.00584672337028413</v>
+        <v>-0.000165217824665831</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.0272274115611593</v>
+        <v>-0.0329737763182902</v>
       </c>
       <c r="S221" t="n">
-        <v>-0.138744266877733</v>
+        <v>-0.139709918851527</v>
       </c>
       <c r="T221" t="n">
-        <v>-0.0276652678963485</v>
+        <v>-0.0276474354009237</v>
       </c>
       <c r="U221" t="n">
-        <v>-0.0211910967942042</v>
+        <v>-0.0211774370925011</v>
       </c>
       <c r="V221" t="n">
-        <v>-0.0252954151589435</v>
+        <v>-0.0252791100798122</v>
       </c>
       <c r="W221" t="n">
-        <v>-0.0292319664097485</v>
+        <v>-0.0292131241614979</v>
       </c>
       <c r="X221" t="n">
-        <v>-0.000447018909943697</v>
+        <v>-0.000515959409119748</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.0595080125534109</v>
+        <v>0.0941804638310284</v>
       </c>
       <c r="Z221" t="n">
-        <v>0.129566193416553</v>
+        <v>0.134412620807423</v>
       </c>
       <c r="AA221" t="n">
-        <v>-0.0164016564474068</v>
+        <v>-0.0174361613517138</v>
       </c>
       <c r="AB221" t="n">
-        <v>-0.0772690150898758</v>
+        <v>-0.0772761573924252</v>
       </c>
       <c r="AC221" t="n">
-        <v>0.0809593635130557</v>
+        <v>0.0561753697081668</v>
       </c>
       <c r="AD221" t="n">
-        <v>-0.00966838072066212</v>
+        <v>0.058668367593151</v>
       </c>
       <c r="AE221" t="n">
-        <v>0.0712909827923935</v>
+        <v>0.114843737301318</v>
       </c>
       <c r="AF221" t="n">
-        <v>-0.022379688744889</v>
+        <v>0.0201314185571788</v>
       </c>
       <c r="AG221" t="n">
-        <v>-0.0890693438230471</v>
+        <v>0.158330956482706</v>
       </c>
     </row>
     <row r="222">
@@ -23485,100 +23485,100 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0229599923101009</v>
+        <v>0.0236006971164882</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.291958453123342</v>
+        <v>-0.292083866309056</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.0120312417640323</v>
+        <v>-0.0120234862043267</v>
       </c>
       <c r="G222" t="n">
-        <v>-0.106783592161752</v>
+        <v>-0.107104254287715</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.0714636319158246</v>
+        <v>-0.0731835403209535</v>
       </c>
       <c r="I222" t="n">
-        <v>-0.0212579650203604</v>
+        <v>-0.0384809509837991</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.0405415805067255</v>
+        <v>-0.0405154494512949</v>
       </c>
       <c r="K222" t="n">
-        <v>0.0274524080945193</v>
+        <v>0.0274347091489435</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0129455776883391</v>
+        <v>0.0129372319497278</v>
       </c>
       <c r="M222" t="n">
-        <v>-0.0281443143627658</v>
+        <v>0.00113155149170652</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0310235400259984</v>
+        <v>0.0311282774700272</v>
       </c>
       <c r="O222" t="n">
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>-0.0939101152475419</v>
+        <v>-0.0938495976444909</v>
       </c>
       <c r="Q222" t="n">
-        <v>-0.00206926158448084</v>
+        <v>0</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.0279334257648478</v>
+        <v>-0.0300147224795544</v>
       </c>
       <c r="S222" t="n">
-        <v>-0.0724842719023067</v>
+        <v>-0.0733403002059485</v>
       </c>
       <c r="T222" t="n">
-        <v>-0.0271499875082792</v>
+        <v>-0.0271324871187972</v>
       </c>
       <c r="U222" t="n">
-        <v>-0.0142860321668437</v>
+        <v>-0.0142768232056056</v>
       </c>
       <c r="V222" t="n">
-        <v>-0.0101455902843051</v>
+        <v>-0.0101390502039833</v>
       </c>
       <c r="W222" t="n">
-        <v>-0.0291104873914483</v>
+        <v>-0.0290917234372134</v>
       </c>
       <c r="X222" t="n">
-        <v>-0.000649534170626964</v>
+        <v>-0.000674616292006824</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.0361806767300354</v>
+        <v>0.0697059458459659</v>
       </c>
       <c r="Z222" t="n">
-        <v>0.00100048211180148</v>
+        <v>0.00559264060950859</v>
       </c>
       <c r="AA222" t="n">
-        <v>-0.281029702577273</v>
+        <v>-0.280506655396895</v>
       </c>
       <c r="AB222" t="n">
-        <v>0.197206102725622</v>
+        <v>0.197003098225668</v>
       </c>
       <c r="AC222" t="n">
-        <v>-0.092865191660052</v>
+        <v>-0.111807999657376</v>
       </c>
       <c r="AD222" t="n">
-        <v>-0.237678321515611</v>
+        <v>-0.170960905170392</v>
       </c>
       <c r="AE222" t="n">
-        <v>-0.330543513175663</v>
+        <v>-0.282768904827768</v>
       </c>
       <c r="AF222" t="n">
-        <v>-0.414367113027314</v>
+        <v>-0.366272461998995</v>
       </c>
       <c r="AG222" t="n">
-        <v>-0.200564377912187</v>
+        <v>0.0559012242433722</v>
       </c>
     </row>
     <row r="223">
@@ -23586,100 +23586,100 @@
         <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0349521287846599</v>
+        <v>0.0359275224796063</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.123848498142953</v>
+        <v>-0.124067577281894</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.0662513639272722</v>
+        <v>-0.0662086657606142</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.105289461169489</v>
+        <v>-0.105605638325157</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.0662127643787591</v>
+        <v>-0.0680937692253858</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.0281983130957286</v>
+        <v>-0.0384354792973274</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.0274805664972289</v>
+        <v>-0.0274628530444909</v>
       </c>
       <c r="K223" t="n">
-        <v>0.182612080330302</v>
+        <v>0.182494279415479</v>
       </c>
       <c r="L223" t="n">
-        <v>0.00622682626068016</v>
+        <v>0.00622281205928665</v>
       </c>
       <c r="M223" t="n">
-        <v>-0.082348303167179</v>
+        <v>-0.0536561175189298</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0296333833725848</v>
+        <v>0.0297375845395687</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
       </c>
       <c r="P223" t="n">
-        <v>-0.0919988267230165</v>
+        <v>-0.0919395403683465</v>
       </c>
       <c r="Q223" t="n">
-        <v>-0.00202958818138477</v>
+        <v>0</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.0271803103734758</v>
+        <v>-0.029221854751571</v>
       </c>
       <c r="S223" t="n">
-        <v>-0.107595978949804</v>
+        <v>-0.108362441108401</v>
       </c>
       <c r="T223" t="n">
-        <v>-0.0259041197053556</v>
+        <v>-0.0258874223016736</v>
       </c>
       <c r="U223" t="n">
-        <v>-0.0130404245628046</v>
+        <v>-0.0130320184970945</v>
       </c>
       <c r="V223" t="n">
-        <v>-0.00969573365036114</v>
+        <v>-0.00968948354739263</v>
       </c>
       <c r="W223" t="n">
-        <v>-0.0229996562038148</v>
+        <v>-0.0229848308119784</v>
       </c>
       <c r="X223" t="n">
-        <v>-0.00134937426183868</v>
+        <v>-0.00137351962200549</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.00380945042626202</v>
+        <v>0.0362307888127189</v>
       </c>
       <c r="Z223" t="n">
-        <v>-0.0261669332575654</v>
+        <v>-0.0219008557337363</v>
       </c>
       <c r="AA223" t="n">
-        <v>-0.155147733285566</v>
+        <v>-0.154348720562902</v>
       </c>
       <c r="AB223" t="n">
-        <v>0.0848104009007367</v>
+        <v>0.0846706047173518</v>
       </c>
       <c r="AC223" t="n">
-        <v>0.0669472626192658</v>
+        <v>0.0547249899075619</v>
       </c>
       <c r="AD223" t="n">
-        <v>-0.376866415237753</v>
+        <v>-0.312079710908841</v>
       </c>
       <c r="AE223" t="n">
-        <v>-0.309919152618487</v>
+        <v>-0.257354721001279</v>
       </c>
       <c r="AF223" t="n">
-        <v>-0.380256485003316</v>
+        <v>-0.32703283684683</v>
       </c>
       <c r="AG223" t="n">
-        <v>-0.324281132336953</v>
+        <v>-0.0573839136024561</v>
       </c>
     </row>
     <row r="224">
@@ -23687,100 +23687,100 @@
         <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.039837836861345</v>
+        <v>0.0409495947917948</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.0262500871773486</v>
+        <v>-0.0265151986773349</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.0110417254525097</v>
+        <v>-0.011034607726812</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.118401128659851</v>
+        <v>-0.118756661711528</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.0227097199331228</v>
+        <v>-0.0248964917630823</v>
       </c>
       <c r="I224" t="n">
-        <v>-0.0130152782864656</v>
+        <v>-0.0231859737060969</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.037946730156746</v>
+        <v>-0.0379222713728478</v>
       </c>
       <c r="K224" t="n">
-        <v>0.181952986122469</v>
+        <v>0.181835610670866</v>
       </c>
       <c r="L224" t="n">
-        <v>0.00644787123518231</v>
+        <v>0.00644371453091264</v>
       </c>
       <c r="M224" t="n">
-        <v>-0.0836525459757875</v>
+        <v>-0.0846979621892396</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0110769033835778</v>
+        <v>0.0228107240193287</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
       </c>
       <c r="P224" t="n">
-        <v>-0.000968847018012475</v>
+        <v>-0.000968222455477452</v>
       </c>
       <c r="Q224" t="n">
-        <v>-0.0105890700580424</v>
+        <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.0179538087937914</v>
+        <v>-0.0286858310251437</v>
       </c>
       <c r="S224" t="n">
-        <v>-0.0848022535005821</v>
+        <v>-0.0855114513575783</v>
       </c>
       <c r="T224" t="n">
-        <v>-0.0253752897926396</v>
+        <v>-0.0253589332323112</v>
       </c>
       <c r="U224" t="n">
-        <v>-0.0133042218893542</v>
+        <v>-0.0132956457841282</v>
       </c>
       <c r="V224" t="n">
-        <v>-0.00822750341834544</v>
+        <v>-0.00822219974269123</v>
       </c>
       <c r="W224" t="n">
-        <v>0.000195949975023701</v>
+        <v>0.000195823656223837</v>
       </c>
       <c r="X224" t="n">
-        <v>-0.000339679300676021</v>
+        <v>-0.000384823756149899</v>
       </c>
       <c r="Y224" t="n">
-        <v>-0.0193424407897935</v>
+        <v>-0.0224448992896309</v>
       </c>
       <c r="Z224" t="n">
-        <v>-0.0226488961107996</v>
+        <v>-0.023774436422408</v>
       </c>
       <c r="AA224" t="n">
-        <v>0.00254602423148675</v>
+        <v>0.00339978838764798</v>
       </c>
       <c r="AB224" t="n">
-        <v>-0.0811093160299925</v>
+        <v>-0.0812068553073808</v>
       </c>
       <c r="AC224" t="n">
-        <v>0.114729128981317</v>
+        <v>0.102274588359752</v>
       </c>
       <c r="AD224" t="n">
-        <v>-0.275931703289223</v>
+        <v>-0.270337857579206</v>
       </c>
       <c r="AE224" t="n">
-        <v>-0.161202574307906</v>
+        <v>-0.168063269219454</v>
       </c>
       <c r="AF224" t="n">
-        <v>-0.239765866106412</v>
+        <v>-0.245870336139187</v>
       </c>
       <c r="AG224" t="n">
-        <v>-0.264192288220482</v>
+        <v>-0.229761054106957</v>
       </c>
     </row>
     <row r="225">
@@ -23788,100 +23788,100 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.090506684664271</v>
+        <v>-0.0930311933781458</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.0766807729971064</v>
+        <v>-0.0769043357876087</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.0108927533514103</v>
+        <v>-0.0108857316522881</v>
       </c>
       <c r="G225" t="n">
-        <v>-0.119734353698309</v>
+        <v>-0.120093888331707</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.0198389111669917</v>
+        <v>-0.0220910334672753</v>
       </c>
       <c r="I225" t="n">
-        <v>-0.00897429697119811</v>
+        <v>-0.0190986738077825</v>
       </c>
       <c r="J225" t="n">
-        <v>-0.0345832594686124</v>
+        <v>-0.0345609683480519</v>
       </c>
       <c r="K225" t="n">
-        <v>0.0715104250745613</v>
+        <v>0.0714643137102566</v>
       </c>
       <c r="L225" t="n">
-        <v>0.00761434653215876</v>
+        <v>0.00760943782298629</v>
       </c>
       <c r="M225" t="n">
-        <v>-0.133646704969581</v>
+        <v>-0.134634420766488</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0114878371352933</v>
+        <v>0.011480431211397</v>
       </c>
       <c r="O225" t="n">
         <v>0</v>
       </c>
       <c r="P225" t="n">
-        <v>-0.000949146565609738</v>
+        <v>-0.000948534702882586</v>
       </c>
       <c r="Q225" t="n">
-        <v>-0.00696900403266421</v>
+        <v>0</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.0113492962143247</v>
+        <v>-0.0184130337574695</v>
       </c>
       <c r="S225" t="n">
-        <v>-0.0475654311169138</v>
+        <v>-0.048203058418983</v>
       </c>
       <c r="T225" t="n">
-        <v>-0.00380442694309924</v>
+        <v>-0.00380197446391284</v>
       </c>
       <c r="U225" t="n">
-        <v>-0.012500575799046</v>
+        <v>-0.0124925177121593</v>
       </c>
       <c r="V225" t="n">
-        <v>-0.00746103647139007</v>
+        <v>-0.00745622686768588</v>
       </c>
       <c r="W225" t="n">
-        <v>0.000142105322842312</v>
+        <v>0.000142013714965472</v>
       </c>
       <c r="X225" t="n">
-        <v>-0.000332733760866066</v>
+        <v>-0.000335727543465669</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.00401289628841894</v>
+        <v>0.0010638984418776</v>
       </c>
       <c r="Z225" t="n">
-        <v>-0.0173877849229842</v>
+        <v>-0.0185052642912797</v>
       </c>
       <c r="AA225" t="n">
-        <v>-0.178080211012788</v>
+        <v>-0.180821260818043</v>
       </c>
       <c r="AB225" t="n">
-        <v>-0.032160827349792</v>
+        <v>-0.0323038208918103</v>
       </c>
       <c r="AC225" t="n">
-        <v>0.0157283039999179</v>
+        <v>0.00332307591013326</v>
       </c>
       <c r="AD225" t="n">
-        <v>-0.226323302049924</v>
+        <v>-0.232104415156087</v>
       </c>
       <c r="AE225" t="n">
-        <v>-0.210594998050007</v>
+        <v>-0.228781339245954</v>
       </c>
       <c r="AF225" t="n">
-        <v>-0.420836036412586</v>
+        <v>-0.441906420955807</v>
       </c>
       <c r="AG225" t="n">
-        <v>-0.363806375137406</v>
+        <v>-0.345270513985203</v>
       </c>
     </row>
     <row r="226">
@@ -23889,100 +23889,100 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0733475541254247</v>
+        <v>-0.0753935775776315</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.0233507130290578</v>
+        <v>-0.0236060845937303</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.0107785265267113</v>
+        <v>-0.0107715784576579</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.107503924641761</v>
+        <v>-0.107826748989659</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.0388737461404332</v>
+        <v>-0.0406814072979822</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.01111368450748</v>
+        <v>-0.0211855625594115</v>
       </c>
       <c r="J226" t="n">
-        <v>-0.0214756636690794</v>
+        <v>-0.0214618205513606</v>
       </c>
       <c r="K226" t="n">
-        <v>0.310106857509429</v>
+        <v>0.309906715886221</v>
       </c>
       <c r="L226" t="n">
-        <v>0.00626113409478712</v>
+        <v>0.0062570977759302</v>
       </c>
       <c r="M226" t="n">
-        <v>-0.124486653463762</v>
+        <v>-0.125455917437833</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0118488319071464</v>
+        <v>0.0118411932485962</v>
       </c>
       <c r="O226" t="n">
         <v>0</v>
       </c>
       <c r="P226" t="n">
-        <v>-0.000930572440316357</v>
+        <v>-0.000929972551255709</v>
       </c>
       <c r="Q226" t="n">
-        <v>-0.0000865603075994592</v>
+        <v>0</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.0109184095889447</v>
+        <v>-0.0109991995086989</v>
       </c>
       <c r="S226" t="n">
-        <v>-0.0156245671360633</v>
+        <v>-0.0162698822111618</v>
       </c>
       <c r="T226" t="n">
-        <v>-0.00261426347661908</v>
+        <v>-0.0026125782148112</v>
       </c>
       <c r="U226" t="n">
-        <v>-0.0140057815154582</v>
+        <v>-0.0139967531978979</v>
       </c>
       <c r="V226" t="n">
-        <v>-0.00689384590185638</v>
+        <v>-0.00688940191643228</v>
       </c>
       <c r="W226" t="n">
-        <v>-0.000137443623537958</v>
+        <v>-0.000137355020901619</v>
       </c>
       <c r="X226" t="n">
-        <v>-0.000326215030144184</v>
+        <v>-0.000329148836120119</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.0266821909852721</v>
+        <v>0.0238745805997365</v>
       </c>
       <c r="Z226" t="n">
-        <v>-0.0123218950636494</v>
+        <v>-0.0134345021059246</v>
       </c>
       <c r="AA226" t="n">
-        <v>-0.107476793681194</v>
+        <v>-0.10977124062902</v>
       </c>
       <c r="AB226" t="n">
-        <v>-0.0733746850859918</v>
+        <v>-0.0734490859382708</v>
       </c>
       <c r="AC226" t="n">
-        <v>0.244904897287224</v>
+        <v>0.232835023253397</v>
       </c>
       <c r="AD226" t="n">
-        <v>-0.149815184655533</v>
+        <v>-0.155338937152705</v>
       </c>
       <c r="AE226" t="n">
-        <v>0.0950897126316907</v>
+        <v>0.0774960861006924</v>
       </c>
       <c r="AF226" t="n">
-        <v>-0.0857617661354948</v>
+        <v>-0.105724240466598</v>
       </c>
       <c r="AG226" t="n">
-        <v>-0.281655038414452</v>
+        <v>-0.280133458602104</v>
       </c>
     </row>
     <row r="227">
@@ -23990,43 +23990,43 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.0490264736984103</v>
+        <v>-0.0503941911015993</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.0592424352640286</v>
+        <v>-0.0594753097103773</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.0106868650483705</v>
+        <v>-0.0106799760639098</v>
       </c>
       <c r="G227" t="n">
-        <v>-0.115504000347666</v>
+        <v>-0.115850837732656</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.0269076821563408</v>
+        <v>-0.0287955194725797</v>
       </c>
       <c r="I227" t="n">
-        <v>0.00688542964943917</v>
+        <v>-0.00312175086106814</v>
       </c>
       <c r="J227" t="n">
-        <v>-0.0225442699131828</v>
+        <v>-0.0225297380348377</v>
       </c>
       <c r="K227" t="n">
-        <v>0.245768731158424</v>
+        <v>0.245610151195508</v>
       </c>
       <c r="L227" t="n">
-        <v>0.00779413237450566</v>
+        <v>0.00778910776011443</v>
       </c>
       <c r="M227" t="n">
-        <v>-0.124653922593265</v>
+        <v>-0.125605168762732</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0121611449442893</v>
+        <v>0.0121533049357803</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -24035,55 +24035,55 @@
         <v>0</v>
       </c>
       <c r="Q227" t="n">
-        <v>-0.0017569988300048</v>
+        <v>0</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.00912332630123025</v>
+        <v>-0.0109002025948213</v>
       </c>
       <c r="S227" t="n">
-        <v>-0.0116555529093509</v>
+        <v>-0.0122910873627813</v>
       </c>
       <c r="T227" t="n">
-        <v>-0.00219589755801053</v>
+        <v>-0.00219448198989225</v>
       </c>
       <c r="U227" t="n">
-        <v>-0.00963687553805492</v>
+        <v>-0.00963066337509311</v>
       </c>
       <c r="V227" t="n">
-        <v>-0.00633389010311625</v>
+        <v>-0.00632980707384601</v>
       </c>
       <c r="W227" t="n">
-        <v>-0.000172366484962883</v>
+        <v>-0.000172255369412788</v>
       </c>
       <c r="X227" t="n">
-        <v>-0.000320126966724121</v>
+        <v>-0.000323010465996809</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.0447882202329497</v>
+        <v>0.0420958625511059</v>
       </c>
       <c r="Z227" t="n">
-        <v>-0.00929502206867827</v>
+        <v>-0.0103877957513432</v>
       </c>
       <c r="AA227" t="n">
-        <v>-0.118955774010809</v>
+        <v>-0.120549476875886</v>
       </c>
       <c r="AB227" t="n">
-        <v>-0.0455747000352669</v>
+        <v>-0.0456955519583691</v>
       </c>
       <c r="AC227" t="n">
-        <v>0.210996341112846</v>
+        <v>0.198952250587137</v>
       </c>
       <c r="AD227" t="n">
-        <v>-0.118194614176159</v>
+        <v>-0.123585305259033</v>
       </c>
       <c r="AE227" t="n">
-        <v>0.0928017269366865</v>
+        <v>0.0753669453281036</v>
       </c>
       <c r="AF227" t="n">
-        <v>-0.0717287471093897</v>
+        <v>-0.0908780835061518</v>
       </c>
       <c r="AG227" t="n">
-        <v>-0.20452310394097</v>
+        <v>-0.221094770266935</v>
       </c>
     </row>
     <row r="228">
@@ -24091,43 +24091,43 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>-23.0427503282924</v>
+        <v>-0.0739285901820486</v>
       </c>
       <c r="E228" t="n">
-        <v>-5.48264514802217</v>
+        <v>-0.0105414891276689</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.96637341770659</v>
+        <v>-0.0106487156767199</v>
       </c>
       <c r="G228" t="n">
-        <v>-36.4427201502282</v>
+        <v>-0.117499901983276</v>
       </c>
       <c r="H228" t="n">
-        <v>7.69365267853175</v>
+        <v>0.0298703559246993</v>
       </c>
       <c r="I228" t="n">
-        <v>4.16137928210174</v>
+        <v>0.00880821231779017</v>
       </c>
       <c r="J228" t="n">
-        <v>0.218537790978957</v>
+        <v>-0.011919868923671</v>
       </c>
       <c r="K228" t="n">
-        <v>-1.98311753638964</v>
+        <v>0.0765313118624045</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0789924676897646</v>
+        <v>0.0089606076296489</v>
       </c>
       <c r="M228" t="n">
-        <v>-6.42232218168017</v>
+        <v>-0.120900814347835</v>
       </c>
       <c r="N228" t="n">
-        <v>-0.699319347126559</v>
+        <v>0.0124509768455905</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -24136,55 +24136,55 @@
         <v>0</v>
       </c>
       <c r="Q228" t="n">
-        <v>-0.00669624554613391</v>
+        <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.059991873421017</v>
+        <v>-0.00687970618661327</v>
       </c>
       <c r="S228" t="n">
-        <v>-0.0696998638953339</v>
+        <v>-0.0692568362894774</v>
       </c>
       <c r="T228" t="n">
-        <v>-0.00278531918108671</v>
+        <v>-0.00278352365088441</v>
       </c>
       <c r="U228" t="n">
-        <v>-0.00660187370520315</v>
+        <v>-0.00659761792937141</v>
       </c>
       <c r="V228" t="n">
-        <v>-0.00567748318949235</v>
+        <v>-0.00567382329228483</v>
       </c>
       <c r="W228" t="n">
-        <v>-0.00714654277753635</v>
+        <v>-0.00714193590029</v>
       </c>
       <c r="X228" t="n">
-        <v>-0.00025392741763719</v>
+        <v>-0.000317002042049541</v>
       </c>
       <c r="Y228" t="n">
-        <v>-5.23032105235551</v>
+        <v>0.060110052821738</v>
       </c>
       <c r="Z228" t="n">
-        <v>-0.898374002555535</v>
+        <v>-0.00740889682725454</v>
       </c>
       <c r="AA228" t="n">
-        <v>-29.4917688940212</v>
+        <v>-0.0951187949864374</v>
       </c>
       <c r="AB228" t="n">
-        <v>-29.9937015844995</v>
+        <v>-0.0963096971788868</v>
       </c>
       <c r="AC228" t="n">
-        <v>10.1694446829126</v>
+        <v>0.112250618810872</v>
       </c>
       <c r="AD228" t="n">
-        <v>-13.4091897128512</v>
+        <v>-0.154399126798732</v>
       </c>
       <c r="AE228" t="n">
-        <v>-3.23974502993866</v>
+        <v>-0.0421485079878603</v>
       </c>
       <c r="AF228" t="n">
-        <v>-62.7252155084593</v>
+        <v>-0.233577000153184</v>
       </c>
       <c r="AG228" t="n">
-        <v>-15.8258855145292</v>
+        <v>-0.218021436270434</v>
       </c>
     </row>
     <row r="229">
@@ -24192,43 +24192,43 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-23.5773414747173</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>-5.69987135799386</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>-0.957045584881233</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>-36.5105632022555</v>
       </c>
       <c r="H229" t="n">
-        <v>7.61026979011092</v>
+        <v>7.68770548725368</v>
       </c>
       <c r="I229" t="n">
-        <v>4.11907431616416</v>
+        <v>4.17970750695513</v>
       </c>
       <c r="J229" t="n">
-        <v>0.219872701401425</v>
+        <v>0.22201597656446</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>-2.05908055322862</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0779291048008224</v>
+        <v>0.078572749604322</v>
       </c>
       <c r="M229" t="n">
-        <v>-6.2783001559226</v>
+        <v>-6.36301470834929</v>
       </c>
       <c r="N229" t="n">
-        <v>-0.695867804294548</v>
+        <v>-0.702452814769539</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -24240,52 +24240,52 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.0503361165258509</v>
+        <v>-0.059794889523257</v>
       </c>
       <c r="S229" t="n">
-        <v>-0.059177370523178</v>
+        <v>-0.0587685774880109</v>
       </c>
       <c r="T229" t="n">
-        <v>-0.000292549941205422</v>
+        <v>-0.000292361349807368</v>
       </c>
       <c r="U229" t="n">
-        <v>-0.00300608649267398</v>
+        <v>-0.00300414864849996</v>
       </c>
       <c r="V229" t="n">
-        <v>-0.00314685009628057</v>
+        <v>-0.00314482151128059</v>
       </c>
       <c r="W229" t="n">
-        <v>-0.00602348114197016</v>
+        <v>-0.00601959820781817</v>
       </c>
       <c r="X229" t="n">
-        <v>-0.000249141045682855</v>
+        <v>-0.000251367488846022</v>
       </c>
       <c r="Y229" t="n">
-        <v>-5.19746227958681</v>
+        <v>-5.27645203455504</v>
       </c>
       <c r="Z229" t="n">
-        <v>-0.88857286571763</v>
+        <v>-0.900618713352841</v>
       </c>
       <c r="AA229" t="n">
-        <v>0</v>
+        <v>-30.2342584175923</v>
       </c>
       <c r="AB229" t="n">
-        <v>0</v>
+        <v>-29.8536462593804</v>
       </c>
       <c r="AC229" t="n">
-        <v>12.0271459124773</v>
+        <v>10.108921167149</v>
       </c>
       <c r="AD229" t="n">
-        <v>-13.1824347012884</v>
+        <v>-13.3738140352442</v>
       </c>
       <c r="AE229" t="n">
-        <v>-1.15528878881109</v>
+        <v>-3.26489286809525</v>
       </c>
       <c r="AF229" t="n">
-        <v>-1.15528878881109</v>
+        <v>-63.352797545068</v>
       </c>
       <c r="AG229" t="n">
-        <v>-16.0094987026288</v>
+        <v>-15.9457442172985</v>
       </c>
     </row>
     <row r="230">
@@ -24293,7 +24293,7 @@
         <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -24311,25 +24311,25 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>3.73759870619599</v>
+        <v>7.62634953918584</v>
       </c>
       <c r="I230" t="n">
-        <v>2.02898272445255</v>
+        <v>4.13929941241422</v>
       </c>
       <c r="J230" t="n">
-        <v>0.213845946591529</v>
+        <v>0.215966884594421</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0779748479893039</v>
+        <v>0.0786105299909856</v>
       </c>
       <c r="M230" t="n">
-        <v>-6.2812063826193</v>
+        <v>-6.36482324856151</v>
       </c>
       <c r="N230" t="n">
-        <v>-0.692665868283437</v>
+        <v>-0.699172698504258</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -24341,31 +24341,31 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.0465842366262792</v>
+        <v>-0.0499922231761984</v>
       </c>
       <c r="S230" t="n">
-        <v>-0.0539196916924722</v>
+        <v>-0.0535659095970531</v>
       </c>
       <c r="T230" t="n">
-        <v>-0.000287018243827486</v>
+        <v>-0.000286833218454685</v>
       </c>
       <c r="U230" t="n">
-        <v>-0.00133901300182204</v>
+        <v>-0.00133814981478908</v>
       </c>
       <c r="V230" t="n">
-        <v>-0.00177734289724674</v>
+        <v>-0.00177619714529786</v>
       </c>
       <c r="W230" t="n">
-        <v>-0.00558436554981556</v>
+        <v>-0.00558076567813703</v>
       </c>
       <c r="X230" t="n">
-        <v>-0.000244511366465083</v>
+        <v>-0.000246713502349838</v>
       </c>
       <c r="Y230" t="n">
-        <v>-5.16646185527889</v>
+        <v>-5.24402816423081</v>
       </c>
       <c r="Z230" t="n">
-        <v>-0.879102339443161</v>
+        <v>-0.890757577758627</v>
       </c>
       <c r="AA230" t="n">
         <v>0</v>
@@ -24374,19 +24374,19 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>6.05840222522938</v>
+        <v>12.0602263661855</v>
       </c>
       <c r="AD230" t="n">
-        <v>-13.1291726250027</v>
+        <v>-13.3115684811875</v>
       </c>
       <c r="AE230" t="n">
-        <v>-7.07077039977334</v>
+        <v>-1.25134211500202</v>
       </c>
       <c r="AF230" t="n">
-        <v>-7.07077039977334</v>
+        <v>-1.25134211500202</v>
       </c>
       <c r="AG230" t="n">
-        <v>-17.7557508610383</v>
+        <v>-16.2321486859323</v>
       </c>
     </row>
     <row r="231">
@@ -24394,7 +24394,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>3.69200518034489</v>
+        <v>3.72855440258424</v>
       </c>
       <c r="I231" t="n">
-        <v>2.01068969924241</v>
+        <v>2.0397778425651</v>
       </c>
       <c r="J231" t="n">
-        <v>0.223798876704184</v>
+        <v>0.225877279936038</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0738914067480945</v>
+        <v>0.0745186868238656</v>
       </c>
       <c r="M231" t="n">
-        <v>-6.18326885632932</v>
+        <v>-6.26553981477278</v>
       </c>
       <c r="N231" t="n">
-        <v>-0.689654052765265</v>
+        <v>-0.696051335110404</v>
       </c>
       <c r="O231" t="n">
         <v>0</v>
@@ -24442,31 +24442,31 @@
         <v>0</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.0429296984877148</v>
+        <v>-0.0462774125205456</v>
       </c>
       <c r="S231" t="n">
-        <v>-0.048883433761282</v>
+        <v>-0.048583331612928</v>
       </c>
       <c r="T231" t="n">
-        <v>-0.00028166665945184</v>
+        <v>-0.000281485083919453</v>
       </c>
       <c r="U231" t="n">
-        <v>-0.00101415793545279</v>
+        <v>-0.00101350416361612</v>
       </c>
       <c r="V231" t="n">
-        <v>-0.00150113605700275</v>
+        <v>-0.00150016835891442</v>
       </c>
       <c r="W231" t="n">
-        <v>-0.00515853526430465</v>
+        <v>-0.00515520989193829</v>
       </c>
       <c r="X231" t="n">
-        <v>-0.000239980133676099</v>
+        <v>-0.000242147297890849</v>
       </c>
       <c r="Y231" t="n">
-        <v>-5.13688254854026</v>
+        <v>-5.21280982697155</v>
       </c>
       <c r="Z231" t="n">
-        <v>-0.869885165185658</v>
+        <v>-0.881115031003754</v>
       </c>
       <c r="AA231" t="n">
         <v>0</v>
@@ -24475,19 +24475,19 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>6.00038516303958</v>
+        <v>6.06872821190925</v>
       </c>
       <c r="AD231" t="n">
-        <v>-12.9796992311194</v>
+        <v>-13.1585692667882</v>
       </c>
       <c r="AE231" t="n">
-        <v>-6.9793140680798</v>
+        <v>-7.089841054879</v>
       </c>
       <c r="AF231" t="n">
-        <v>-6.9793140680798</v>
+        <v>-7.089841054879</v>
       </c>
       <c r="AG231" t="n">
-        <v>-19.4826471912809</v>
+        <v>-17.9818894287756</v>
       </c>
     </row>
     <row r="232">
@@ -24495,7 +24495,7 @@
         <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -24513,25 +24513,25 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>3.6482962697276</v>
+        <v>3.68441521741338</v>
       </c>
       <c r="I232" t="n">
-        <v>1.99238572260305</v>
+        <v>2.02115379695362</v>
       </c>
       <c r="J232" t="n">
-        <v>0.224757225060368</v>
+        <v>0.226804381763923</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0709017697389625</v>
+        <v>0.071521658741136</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>-6.17379776375415</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>-0.693198911893966</v>
       </c>
       <c r="O232" t="n">
         <v>0</v>
@@ -24543,31 +24543,31 @@
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.0255391726823873</v>
+        <v>-0.0432817063043101</v>
       </c>
       <c r="S232" t="n">
-        <v>-0.0427617647322243</v>
+        <v>-0.0425068353612335</v>
       </c>
       <c r="T232" t="n">
-        <v>-0.000276452620551204</v>
+        <v>-0.000276274406230126</v>
       </c>
       <c r="U232" t="n">
-        <v>-0.000999691738057251</v>
+        <v>-0.000999047291727617</v>
       </c>
       <c r="V232" t="n">
-        <v>-0.00124209277586607</v>
+        <v>-0.00124129206759971</v>
       </c>
       <c r="W232" t="n">
-        <v>-0.00307267701926683</v>
+        <v>-0.00307069624864154</v>
       </c>
       <c r="X232" t="n">
-        <v>-0.0000805660275382536</v>
+        <v>-0.00023772569720526</v>
       </c>
       <c r="Y232" t="n">
-        <v>0</v>
+        <v>-5.18360304265507</v>
       </c>
       <c r="Z232" t="n">
-        <v>0</v>
+        <v>-0.871826326761027</v>
       </c>
       <c r="AA232" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>5.93634098712998</v>
+        <v>6.00389505487207</v>
       </c>
       <c r="AD232" t="n">
-        <v>-0.0739724175958911</v>
+        <v>-13.0140396224412</v>
       </c>
       <c r="AE232" t="n">
-        <v>5.86236856953409</v>
+        <v>-7.0101445675691</v>
       </c>
       <c r="AF232" t="n">
-        <v>5.86236856953409</v>
+        <v>-7.0101445675691</v>
       </c>
       <c r="AG232" t="n">
-        <v>-2.33575117178253</v>
+        <v>-19.6760313206295</v>
       </c>
     </row>
     <row r="233">
@@ -24596,7 +24596,7 @@
         <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -24614,19 +24614,19 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.60554795665911</v>
+        <v>3.64132953143839</v>
       </c>
       <c r="I233" t="n">
-        <v>1.97411258764491</v>
+        <v>2.00261825867176</v>
       </c>
       <c r="J233" t="n">
-        <v>0.224871901794899</v>
+        <v>0.226893961089969</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0701237105799057</v>
+        <v>0.0707364992241333</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -24644,25 +24644,25 @@
         <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.0140980746307307</v>
+        <v>-0.0257980653677881</v>
       </c>
       <c r="S233" t="n">
-        <v>-0.0433526890942115</v>
+        <v>-0.042801883797039</v>
       </c>
       <c r="T233" t="n">
-        <v>0.000198540606466402</v>
+        <v>0.000198412617646859</v>
       </c>
       <c r="U233" t="n">
-        <v>-0.000994763211314975</v>
+        <v>-0.000994121942132775</v>
       </c>
       <c r="V233" t="n">
-        <v>-0.000241404217549146</v>
+        <v>-0.000241248597110388</v>
       </c>
       <c r="W233" t="n">
-        <v>-0.0017028383427875</v>
+        <v>-0.00170174061934203</v>
       </c>
       <c r="X233" t="n">
-        <v>-0.0000791043808012759</v>
+        <v>-0.000079807959807443</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>5.87465615667881</v>
+        <v>5.94157825042425</v>
       </c>
       <c r="AD233" t="n">
-        <v>-0.0602703332709287</v>
+        <v>-0.0714184556655728</v>
       </c>
       <c r="AE233" t="n">
-        <v>5.81438582340789</v>
+        <v>5.87015979475868</v>
       </c>
       <c r="AF233" t="n">
-        <v>5.81438582340789</v>
+        <v>5.87015979475868</v>
       </c>
       <c r="AG233" t="n">
-        <v>-0.593332518727791</v>
+        <v>-2.37029198567286</v>
       </c>
     </row>
     <row r="234">
@@ -24697,7 +24697,7 @@
         <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -24715,19 +24715,19 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3.60099977637922</v>
+        <v>3.63618073586425</v>
       </c>
       <c r="I234" t="n">
-        <v>1.95395559753235</v>
+        <v>1.98218858417079</v>
       </c>
       <c r="J234" t="n">
-        <v>0.22500748919585</v>
+        <v>0.227003803007952</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0694574459846331</v>
+        <v>0.070062870034282</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -24745,25 +24745,25 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.0138409680065177</v>
+        <v>-0.0139710990906705</v>
       </c>
       <c r="S234" t="n">
-        <v>-0.0420928668964815</v>
+        <v>-0.0415522314452188</v>
       </c>
       <c r="T234" t="n">
-        <v>0.000194961748234412</v>
+        <v>0.000194836066547133</v>
       </c>
       <c r="U234" t="n">
-        <v>-0.000999629447462347</v>
+        <v>-0.000998985041278377</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>-0.00167178225809472</v>
+        <v>-0.00167070455466822</v>
       </c>
       <c r="X234" t="n">
-        <v>-0.0000776626456366891</v>
+        <v>-0.0000783582195795773</v>
       </c>
       <c r="Y234" t="n">
         <v>0</v>
@@ -24778,19 +24778,19 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>5.84942030909206</v>
+        <v>5.91543599307727</v>
       </c>
       <c r="AD234" t="n">
-        <v>-0.0584879475059585</v>
+        <v>-0.0580765422848684</v>
       </c>
       <c r="AE234" t="n">
-        <v>5.7909323615861</v>
+        <v>5.8573594507924</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.7909323615861</v>
+        <v>5.8573594507924</v>
       </c>
       <c r="AG234" t="n">
-        <v>2.62209317161207</v>
+        <v>-0.593116594224253</v>
       </c>
     </row>
     <row r="235">
@@ -24798,7 +24798,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -24816,19 +24816,19 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>3.55890270034136</v>
+        <v>3.5940163457955</v>
       </c>
       <c r="I235" t="n">
-        <v>1.93464713371561</v>
+        <v>1.96274563448411</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2252502330095</v>
+        <v>0.227237496921728</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0688149810768257</v>
+        <v>0.0694181150347584</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -24846,25 +24846,25 @@
         <v>0</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.0108918900234789</v>
+        <v>-0.013837663246008</v>
       </c>
       <c r="S235" t="n">
-        <v>-0.0393588583845639</v>
+        <v>-0.0388289758359139</v>
       </c>
       <c r="T235" t="n">
-        <v>0.000191492757584122</v>
+        <v>0.000191369312241285</v>
       </c>
       <c r="U235" t="n">
-        <v>-0.000590233761299519</v>
+        <v>-0.000589853269428176</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>-0.0013155648811769</v>
+        <v>-0.00131471680980821</v>
       </c>
       <c r="X235" t="n">
-        <v>-0.0000762463226777754</v>
+        <v>-0.0000769397118460802</v>
       </c>
       <c r="Y235" t="n">
         <v>0</v>
@@ -24879,19 +24879,19 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>5.78761504814329</v>
+        <v>5.8534175922361</v>
       </c>
       <c r="AD235" t="n">
-        <v>-0.0520413006156129</v>
+        <v>-0.0544567795607631</v>
       </c>
       <c r="AE235" t="n">
-        <v>5.73557374752768</v>
+        <v>5.79896081267534</v>
       </c>
       <c r="AF235" t="n">
-        <v>5.73557374752768</v>
+        <v>5.79896081267534</v>
       </c>
       <c r="AG235" t="n">
-        <v>5.80081512551394</v>
+        <v>2.62908387266433</v>
       </c>
     </row>
     <row r="236">
@@ -24899,7 +24899,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -24917,19 +24917,19 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>3.55132754670098</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1.94318840245689</v>
       </c>
       <c r="J236" t="n">
-        <v>0.225428796787042</v>
+        <v>0.227397607441771</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.067934730501884</v>
+        <v>0.0685328592979983</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -24947,16 +24947,16 @@
         <v>0</v>
       </c>
       <c r="R236" t="n">
-        <v>0</v>
+        <v>-0.0112676159005676</v>
       </c>
       <c r="S236" t="n">
-        <v>-0.0309962909469275</v>
+        <v>-0.0305839394865504</v>
       </c>
       <c r="T236" t="n">
-        <v>0.000188002162038181</v>
+        <v>0.000187880966917575</v>
       </c>
       <c r="U236" t="n">
-        <v>-0.000588512143884223</v>
+        <v>-0.000588132761836224</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="X236" t="n">
-        <v>0</v>
+        <v>-0.0000755201698732222</v>
       </c>
       <c r="Y236" t="n">
         <v>0</v>
@@ -24980,19 +24980,19 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>0.293363527288926</v>
+        <v>5.79044641589763</v>
       </c>
       <c r="AD236" t="n">
-        <v>-0.0313968009287735</v>
+        <v>-0.0423273273519098</v>
       </c>
       <c r="AE236" t="n">
-        <v>0.261966726360152</v>
+        <v>5.74811908854572</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.261966726360152</v>
+        <v>5.74811908854572</v>
       </c>
       <c r="AG236" t="n">
-        <v>4.40071466472045</v>
+        <v>5.81864978669304</v>
       </c>
     </row>
     <row r="237">
@@ -25000,7 +25000,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -25024,13 +25024,13 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0.220737579746166</v>
+        <v>0.222690343737431</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0667173172573365</v>
+        <v>0.0673104559444804</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
@@ -25051,13 +25051,13 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>-0.0321015779081502</v>
+        <v>-0.0315511444970218</v>
       </c>
       <c r="T237" t="n">
-        <v>0.000434475296451353</v>
+        <v>0.000434195212650756</v>
       </c>
       <c r="U237" t="n">
-        <v>-0.000589025856911896</v>
+        <v>-0.000588646143750982</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>0.287454897003503</v>
+        <v>0.290000799681911</v>
       </c>
       <c r="AD237" t="n">
-        <v>-0.0322561284686107</v>
+        <v>-0.031705595428122</v>
       </c>
       <c r="AE237" t="n">
-        <v>0.255198768534892</v>
+        <v>0.258295204253789</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.255198768534892</v>
+        <v>0.258295204253789</v>
       </c>
       <c r="AG237" t="n">
-        <v>3.01091790100221</v>
+        <v>4.41568363906681</v>
       </c>
     </row>
     <row r="238">
@@ -25101,7 +25101,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0.216093332370848</v>
+        <v>0.218028359499201</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0651947533400365</v>
+        <v>0.0657825927966593</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -25152,13 +25152,13 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>-0.0310567937513051</v>
+        <v>-0.0305168201112038</v>
       </c>
       <c r="T238" t="n">
         <v>0</v>
       </c>
       <c r="U238" t="n">
-        <v>-0.000491846175665334</v>
+        <v>-0.00049152910885919</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -25182,19 +25182,19 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>0.281288085710885</v>
+        <v>0.28381095229586</v>
       </c>
       <c r="AD238" t="n">
-        <v>-0.0315486399269704</v>
+        <v>-0.031008349220063</v>
       </c>
       <c r="AE238" t="n">
-        <v>0.249739445783914</v>
+        <v>0.252802603075797</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.249739445783914</v>
+        <v>0.252802603075797</v>
       </c>
       <c r="AG238" t="n">
-        <v>1.62561967205166</v>
+        <v>3.01454442713766</v>
       </c>
     </row>
     <row r="239">
@@ -25202,7 +25202,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -25226,13 +25226,13 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>0.211509910530117</v>
+        <v>0.213427782466336</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0639268858085185</v>
+        <v>0.0645094509448718</v>
       </c>
       <c r="M239" t="n">
         <v>0</v>
@@ -25253,13 +25253,13 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>-0.0296440920119934</v>
+        <v>-0.0291147072979947</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
       </c>
       <c r="U239" t="n">
-        <v>-0.000388482477786667</v>
+        <v>-0.000388232043913028</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="AC239" t="n">
-        <v>0.275436796338635</v>
+        <v>0.277937233411207</v>
       </c>
       <c r="AD239" t="n">
-        <v>-0.03003257448978</v>
+        <v>-0.0295029393419077</v>
       </c>
       <c r="AE239" t="n">
-        <v>0.245404221848855</v>
+        <v>0.2484342940693</v>
       </c>
       <c r="AF239" t="n">
-        <v>0.245404221848855</v>
+        <v>0.2484342940693</v>
       </c>
       <c r="AG239" t="n">
-        <v>0.253077290631954</v>
+        <v>1.62691279748615</v>
       </c>
     </row>
     <row r="240">
@@ -25303,7 +25303,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -25327,13 +25327,13 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>0</v>
+        <v>0.208879478292956</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
       </c>
       <c r="L240" t="n">
-        <v>0</v>
+        <v>0.0634609189309243</v>
       </c>
       <c r="M240" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>-0.00979761734155593</v>
+        <v>-0.00962008279206117</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
       </c>
       <c r="U240" t="n">
-        <v>-0.000287855950809046</v>
+        <v>-0.000287670385379357</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -25384,19 +25384,19 @@
         <v>0</v>
       </c>
       <c r="AC240" t="n">
-        <v>0</v>
+        <v>0.27234039722388</v>
       </c>
       <c r="AD240" t="n">
-        <v>-0.010085473292365</v>
+        <v>-0.00990775317744053</v>
       </c>
       <c r="AE240" t="n">
-        <v>-0.010085473292365</v>
+        <v>0.26243264404644</v>
       </c>
       <c r="AF240" t="n">
-        <v>-0.010085473292365</v>
+        <v>0.26243264404644</v>
       </c>
       <c r="AG240" t="n">
-        <v>0.185064240718825</v>
+        <v>0.255491186361334</v>
       </c>
     </row>
     <row r="241">
@@ -25404,7 +25404,7 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -25455,13 +25455,13 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>-0.0100569816277041</v>
+        <v>-0.00988248944842063</v>
       </c>
       <c r="T241" t="n">
         <v>0</v>
       </c>
       <c r="U241" t="n">
-        <v>-0.00018997850271818</v>
+        <v>-0.000189856033661062</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -25488,16 +25488,16 @@
         <v>0</v>
       </c>
       <c r="AD241" t="n">
-        <v>-0.0102469601304223</v>
+        <v>-0.0100723454820817</v>
       </c>
       <c r="AE241" t="n">
-        <v>-0.0102469601304223</v>
+        <v>-0.0100723454820817</v>
       </c>
       <c r="AF241" t="n">
-        <v>-0.0102469601304223</v>
+        <v>-0.0100723454820817</v>
       </c>
       <c r="AG241" t="n">
-        <v>0.118702808552496</v>
+        <v>0.188399298927366</v>
       </c>
     </row>
     <row r="242">
@@ -25505,7 +25505,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -25556,13 +25556,13 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>-0.00965027738401014</v>
+        <v>-0.00947920853566764</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>-0.0000948037416570457</v>
+        <v>-0.0000947426267217111</v>
       </c>
       <c r="V242" t="n">
         <v>0</v>
@@ -25589,16 +25589,16 @@
         <v>0</v>
       </c>
       <c r="AD242" t="n">
-        <v>-0.00974508112566719</v>
+        <v>-0.00957395116238935</v>
       </c>
       <c r="AE242" t="n">
-        <v>-0.00974508112566719</v>
+        <v>-0.00957395116238935</v>
       </c>
       <c r="AF242" t="n">
-        <v>-0.00974508112566719</v>
+        <v>-0.00957395116238935</v>
       </c>
       <c r="AG242" t="n">
-        <v>0.0538316768251006</v>
+        <v>0.12280516036782</v>
       </c>
     </row>
     <row r="243">
@@ -25606,7 +25606,7 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>-0.00946906209109422</v>
+        <v>-0.00930120550378666</v>
       </c>
       <c r="T243" t="n">
         <v>0</v>
@@ -25690,16 +25690,16 @@
         <v>0</v>
       </c>
       <c r="AD243" t="n">
-        <v>-0.00946906209109422</v>
+        <v>-0.00930120550378666</v>
       </c>
       <c r="AE243" t="n">
-        <v>-0.00946906209109422</v>
+        <v>-0.00930120550378666</v>
       </c>
       <c r="AF243" t="n">
-        <v>-0.00946906209109422</v>
+        <v>-0.00930120550378666</v>
       </c>
       <c r="AG243" t="n">
-        <v>-0.00988664415988671</v>
+        <v>0.0583712854745483</v>
       </c>
     </row>
     <row r="244">
@@ -25707,7 +25707,7 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="AG244" t="n">
-        <v>-0.00736527583679547</v>
+        <v>-0.00723687553706165</v>
       </c>
     </row>
     <row r="245">
@@ -25808,7 +25808,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AG245" t="n">
-        <v>-0.00480353580418991</v>
+        <v>-0.00471878916654123</v>
       </c>
     </row>
     <row r="246">
@@ -25909,7 +25909,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AG246" t="n">
-        <v>-0.00236726552277311</v>
+        <v>-0.00232530137594389</v>
       </c>
     </row>
     <row r="247">
@@ -26010,7 +26010,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="248">
@@ -26111,7 +26111,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -26204,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="AG248" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="249">
@@ -26212,7 +26212,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="250">
@@ -26313,7 +26313,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="AG250" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="251">
@@ -26414,7 +26414,7 @@
         <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="AG251" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="252">
@@ -26515,7 +26515,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="253">
@@ -26616,7 +26616,7 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="AG253" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="254">
@@ -26717,7 +26717,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="255">
@@ -26818,7 +26818,7 @@
         <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="AG255" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="256">
@@ -26919,7 +26919,7 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="AG256" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="257">
@@ -27020,7 +27020,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="AG257" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="258">
@@ -27121,7 +27121,7 @@
         <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="AG258" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="259">
@@ -27222,7 +27222,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AG259" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
     <row r="260">
@@ -27323,7 +27323,7 @@
         <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
-        <v>0.000000000000000444089209850063</v>
+        <v>0.00000000000000277555756156289</v>
       </c>
     </row>
   </sheetData>

--- a/results/10-2024/beta/contributions-10-2024.xlsx
+++ b/results/10-2024/beta/contributions-10-2024.xlsx
@@ -21575,7 +21575,7 @@
         <v>1.85813528875773</v>
       </c>
       <c r="E203" t="n">
-        <v>12.9390017905476</v>
+        <v>2.00684683069203</v>
       </c>
       <c r="F203" t="n">
         <v>-0.00488967159523179</v>
@@ -21623,13 +21623,13 @@
         <v>0</v>
       </c>
       <c r="U203" t="n">
-        <v>0</v>
+        <v>0.415341792524715</v>
       </c>
       <c r="V203" t="n">
         <v>0</v>
       </c>
       <c r="W203" t="n">
-        <v>0</v>
+        <v>0.165790092547091</v>
       </c>
       <c r="X203" t="n">
         <v>0.0000119224275785257</v>
@@ -21641,25 +21641,25 @@
         <v>-0.203888741336256</v>
       </c>
       <c r="AA203" t="n">
-        <v>14.7922474077101</v>
+        <v>3.86009244785454</v>
       </c>
       <c r="AB203" t="n">
-        <v>-13.5683966342353</v>
+        <v>-2.63624167437975</v>
       </c>
       <c r="AC203" t="n">
         <v>0.316991722524596</v>
       </c>
       <c r="AD203" t="n">
-        <v>12.1356691737137</v>
+        <v>12.7168010587855</v>
       </c>
       <c r="AE203" t="n">
-        <v>12.4526608962383</v>
+        <v>13.0337927813101</v>
       </c>
       <c r="AF203" t="n">
-        <v>13.6765116697131</v>
+        <v>14.2576435547849</v>
       </c>
       <c r="AG203" t="n">
-        <v>3.82427268928902</v>
+        <v>3.96955566055697</v>
       </c>
     </row>
     <row r="204">
@@ -21676,7 +21676,7 @@
         <v>-1.14531348731808</v>
       </c>
       <c r="E204" t="n">
-        <v>-11.5793528519049</v>
+        <v>-0.62736705167179</v>
       </c>
       <c r="F204" t="n">
         <v>0.0572813489514212</v>
@@ -21724,13 +21724,13 @@
         <v>0</v>
       </c>
       <c r="U204" t="n">
-        <v>0.164150830075549</v>
+        <v>0.029061114821638</v>
       </c>
       <c r="V204" t="n">
         <v>0</v>
       </c>
       <c r="W204" t="n">
-        <v>0.180705609526233</v>
+        <v>0.151242269275742</v>
       </c>
       <c r="X204" t="n">
         <v>-0.0000514166403564609</v>
@@ -21742,25 +21742,25 @@
         <v>-0.0317076522897919</v>
       </c>
       <c r="AA204" t="n">
-        <v>-12.6673849902715</v>
+        <v>-1.71539919003845</v>
       </c>
       <c r="AB204" t="n">
-        <v>11.0306245143876</v>
+        <v>0.0786387141545108</v>
       </c>
       <c r="AC204" t="n">
         <v>0.459952039922273</v>
       </c>
       <c r="AD204" t="n">
-        <v>4.17775219446932</v>
+        <v>4.01319913896492</v>
       </c>
       <c r="AE204" t="n">
-        <v>4.63770423439159</v>
+        <v>4.47315117888719</v>
       </c>
       <c r="AF204" t="n">
-        <v>3.00094375850766</v>
+        <v>2.83639070300326</v>
       </c>
       <c r="AG204" t="n">
-        <v>4.40978157460972</v>
+        <v>4.51392628200157</v>
       </c>
     </row>
     <row r="205">
@@ -21825,13 +21825,13 @@
         <v>0</v>
       </c>
       <c r="U205" t="n">
-        <v>0.0445521294941909</v>
+        <v>0.0416773742236032</v>
       </c>
       <c r="V205" t="n">
         <v>0</v>
       </c>
       <c r="W205" t="n">
-        <v>0.139579484933283</v>
+        <v>0.129902533268478</v>
       </c>
       <c r="X205" t="n">
         <v>-0.000031301407033002</v>
@@ -21852,16 +21852,16 @@
         <v>-0.540762257703398</v>
       </c>
       <c r="AD205" t="n">
-        <v>-2.21218443315311</v>
+        <v>-2.2247361400885</v>
       </c>
       <c r="AE205" t="n">
-        <v>-2.75294669085651</v>
+        <v>-2.7654983977919</v>
       </c>
       <c r="AF205" t="n">
-        <v>-3.39388839615746</v>
+        <v>-3.40644010309286</v>
       </c>
       <c r="AG205" t="n">
-        <v>3.43465855177596</v>
+        <v>3.53566533243396</v>
       </c>
     </row>
     <row r="206">
@@ -21926,13 +21926,13 @@
         <v>0</v>
       </c>
       <c r="U206" t="n">
-        <v>0.0262367450360568</v>
+        <v>-0.124133157555872</v>
       </c>
       <c r="V206" t="n">
         <v>0</v>
       </c>
       <c r="W206" t="n">
-        <v>0.125791451774493</v>
+        <v>0.115563700311161</v>
       </c>
       <c r="X206" t="n">
         <v>0.00164391732406788</v>
@@ -21953,16 +21953,16 @@
         <v>-0.205946254819345</v>
       </c>
       <c r="AD206" t="n">
-        <v>7.66275280486587</v>
+        <v>7.50215515081061</v>
       </c>
       <c r="AE206" t="n">
-        <v>7.45680655004652</v>
+        <v>7.29620889599126</v>
       </c>
       <c r="AF206" t="n">
-        <v>8.08231554159449</v>
+        <v>7.92171788753923</v>
       </c>
       <c r="AG206" t="n">
-        <v>5.34147064341445</v>
+        <v>5.40232801055864</v>
       </c>
     </row>
     <row r="207">
@@ -22027,13 +22027,13 @@
         <v>0.0415183866104618</v>
       </c>
       <c r="U207" t="n">
-        <v>-0.0381416975003379</v>
+        <v>-0.0409931882009773</v>
       </c>
       <c r="V207" t="n">
         <v>0.119830088665562</v>
       </c>
       <c r="W207" t="n">
-        <v>0.110759529482141</v>
+        <v>0.060666345938909</v>
       </c>
       <c r="X207" t="n">
         <v>0.0066359484619305</v>
@@ -22054,16 +22054,16 @@
         <v>-0.235624577386329</v>
       </c>
       <c r="AD207" t="n">
-        <v>-0.804314169526954</v>
+        <v>-0.857258843770825</v>
       </c>
       <c r="AE207" t="n">
-        <v>-1.03993874691328</v>
+        <v>-1.09288342115715</v>
       </c>
       <c r="AF207" t="n">
-        <v>-2.16169201145573</v>
+        <v>-2.2146366856996</v>
       </c>
       <c r="AG207" t="n">
-        <v>1.38191972312224</v>
+        <v>1.28425795043751</v>
       </c>
     </row>
     <row r="208">
@@ -22128,13 +22128,13 @@
         <v>0.182728581259162</v>
       </c>
       <c r="U208" t="n">
-        <v>0.0103368360091727</v>
+        <v>0.00779178466965291</v>
       </c>
       <c r="V208" t="n">
         <v>0.13443770463879</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0596565335020616</v>
+        <v>0.0275547214441785</v>
       </c>
       <c r="X208" t="n">
         <v>-0.00114911661912576</v>
@@ -22155,16 +22155,16 @@
         <v>-0.335068156237039</v>
       </c>
       <c r="AD208" t="n">
-        <v>-1.81105951209124</v>
+        <v>-1.84570637548864</v>
       </c>
       <c r="AE208" t="n">
-        <v>-2.14612766832828</v>
+        <v>-2.18077453172568</v>
       </c>
       <c r="AF208" t="n">
-        <v>-2.75625064824561</v>
+        <v>-2.79089751164301</v>
       </c>
       <c r="AG208" t="n">
-        <v>-0.0573788785660773</v>
+        <v>-0.122564103224059</v>
       </c>
     </row>
     <row r="209">
@@ -22229,13 +22229,13 @@
         <v>0.0464628048628457</v>
       </c>
       <c r="U209" t="n">
-        <v>0.0850934821091665</v>
+        <v>0.0822114710414379</v>
       </c>
       <c r="V209" t="n">
         <v>0.142993982143524</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0252195512580711</v>
+        <v>0.0244138749784462</v>
       </c>
       <c r="X209" t="n">
         <v>-0.000549401375182779</v>
@@ -22256,16 +22256,16 @@
         <v>-0.235680997587606</v>
       </c>
       <c r="AD209" t="n">
-        <v>-2.1393757522723</v>
+        <v>-2.14306343961965</v>
       </c>
       <c r="AE209" t="n">
-        <v>-2.37505674985991</v>
+        <v>-2.37874443720726</v>
       </c>
       <c r="AF209" t="n">
-        <v>-2.77483389326831</v>
+        <v>-2.77852158061567</v>
       </c>
       <c r="AG209" t="n">
-        <v>0.09738474715621</v>
+        <v>0.0344155273952378</v>
       </c>
     </row>
     <row r="210">
@@ -22330,13 +22330,13 @@
         <v>-0.0344698538860322</v>
       </c>
       <c r="U210" t="n">
-        <v>0.0547355444684205</v>
+        <v>0.0516228745243819</v>
       </c>
       <c r="V210" t="n">
         <v>0.122975235565992</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0220546429122725</v>
+        <v>0.0139185489227645</v>
       </c>
       <c r="X210" t="n">
         <v>-0.000624645089253306</v>
@@ -22357,16 +22357,16 @@
         <v>-0.838535595708545</v>
       </c>
       <c r="AD210" t="n">
-        <v>-1.92830899076376</v>
+        <v>-1.93955775469731</v>
       </c>
       <c r="AE210" t="n">
-        <v>-2.76684458647231</v>
+        <v>-2.77809335040585</v>
       </c>
       <c r="AF210" t="n">
-        <v>-3.7249896491958</v>
+        <v>-3.73623841312934</v>
       </c>
       <c r="AG210" t="n">
-        <v>-2.85444155054136</v>
+        <v>-2.8800735477719</v>
       </c>
     </row>
     <row r="211">
@@ -22431,13 +22431,13 @@
         <v>0.024340152317448</v>
       </c>
       <c r="U211" t="n">
-        <v>0.0337290372707466</v>
+        <v>0.0307092463431857</v>
       </c>
       <c r="V211" t="n">
         <v>0.0825747239634689</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0138626963285926</v>
+        <v>-0.0153664935740538</v>
       </c>
       <c r="X211" t="n">
         <v>-0.000755600784996258</v>
@@ -22458,16 +22458,16 @@
         <v>-1.14502047918698</v>
       </c>
       <c r="AD211" t="n">
-        <v>-2.72339730728056</v>
+        <v>-2.75564628811077</v>
       </c>
       <c r="AE211" t="n">
-        <v>-3.86841778646754</v>
+        <v>-3.90066676729774</v>
       </c>
       <c r="AF211" t="n">
-        <v>-4.50116598824358</v>
+        <v>-4.53341496907379</v>
       </c>
       <c r="AG211" t="n">
-        <v>-3.43931004473832</v>
+        <v>-3.45976811861545</v>
       </c>
     </row>
     <row r="212">
@@ -22532,7 +22532,7 @@
         <v>0.0248137535214799</v>
       </c>
       <c r="U212" t="n">
-        <v>-0.010467652720747</v>
+        <v>-0.0624331921386667</v>
       </c>
       <c r="V212" t="n">
         <v>0.0499668903684913</v>
@@ -22559,16 +22559,16 @@
         <v>-0.630190291704857</v>
       </c>
       <c r="AD212" t="n">
-        <v>-1.49723797762481</v>
+        <v>-1.54920351704273</v>
       </c>
       <c r="AE212" t="n">
-        <v>-2.12742826932967</v>
+        <v>-2.17939380874759</v>
       </c>
       <c r="AF212" t="n">
-        <v>-2.2177685363615</v>
+        <v>-2.26973407577942</v>
       </c>
       <c r="AG212" t="n">
-        <v>-3.3046895167673</v>
+        <v>-3.32947725964955</v>
       </c>
     </row>
     <row r="213">
@@ -22633,7 +22633,7 @@
         <v>-0.0350063168225057</v>
       </c>
       <c r="U213" t="n">
-        <v>-0.0619177431531281</v>
+        <v>-0.0630238851751175</v>
       </c>
       <c r="V213" t="n">
         <v>-0.0339268892289191</v>
@@ -22660,16 +22660,16 @@
         <v>-0.423615750014705</v>
       </c>
       <c r="AD213" t="n">
-        <v>-0.320274629113193</v>
+        <v>-0.321380771135182</v>
       </c>
       <c r="AE213" t="n">
-        <v>-0.743890379127898</v>
+        <v>-0.744996521149888</v>
       </c>
       <c r="AF213" t="n">
-        <v>-0.181646026704207</v>
+        <v>-0.182752168726197</v>
       </c>
       <c r="AG213" t="n">
-        <v>-2.65639255012627</v>
+        <v>-2.68053490667719</v>
       </c>
     </row>
     <row r="214">
@@ -22734,7 +22734,7 @@
         <v>-0.0338920949621624</v>
       </c>
       <c r="U214" t="n">
-        <v>-0.0450332772740203</v>
+        <v>-0.0461046940579135</v>
       </c>
       <c r="V214" t="n">
         <v>-0.0862118945792134</v>
@@ -22761,16 +22761,16 @@
         <v>0.615177691227164</v>
       </c>
       <c r="AD214" t="n">
-        <v>-1.08275313871172</v>
+        <v>-1.08382455549562</v>
       </c>
       <c r="AE214" t="n">
-        <v>-0.467575447484558</v>
+        <v>-0.468646864268452</v>
       </c>
       <c r="AF214" t="n">
-        <v>0.0390755469108828</v>
+        <v>0.0380041301269896</v>
       </c>
       <c r="AG214" t="n">
-        <v>-1.7153762510996</v>
+        <v>-1.7369742708631</v>
       </c>
     </row>
     <row r="215">
@@ -22835,7 +22835,7 @@
         <v>0.000640298803311623</v>
       </c>
       <c r="U215" t="n">
-        <v>-0.0276163403257201</v>
+        <v>-0.0403329348358072</v>
       </c>
       <c r="V215" t="n">
         <v>-0.0927069188247143</v>
@@ -22862,16 +22862,16 @@
         <v>0.544935118379086</v>
       </c>
       <c r="AD215" t="n">
-        <v>-1.22502220442638</v>
+        <v>-1.23773879893647</v>
       </c>
       <c r="AE215" t="n">
-        <v>-0.680087086047299</v>
+        <v>-0.692803680557386</v>
       </c>
       <c r="AF215" t="n">
-        <v>-0.530685367992512</v>
+        <v>-0.543401962502599</v>
       </c>
       <c r="AG215" t="n">
-        <v>-0.722756096036832</v>
+        <v>-0.739471019220305</v>
       </c>
     </row>
     <row r="216">
@@ -22936,7 +22936,7 @@
         <v>0.00071707800293197</v>
       </c>
       <c r="U216" t="n">
-        <v>-0.0131325479427846</v>
+        <v>-0.0255380273358585</v>
       </c>
       <c r="V216" t="n">
         <v>-0.0920642374386049</v>
@@ -22963,16 +22963,16 @@
         <v>0.218984373570941</v>
       </c>
       <c r="AD216" t="n">
-        <v>-0.673587398790365</v>
+        <v>-0.685992878183439</v>
       </c>
       <c r="AE216" t="n">
-        <v>-0.454603025219424</v>
+        <v>-0.467008504612498</v>
       </c>
       <c r="AF216" t="n">
-        <v>0.155024478441534</v>
+        <v>0.142618999048461</v>
       </c>
       <c r="AG216" t="n">
-        <v>-0.129557842336074</v>
+        <v>-0.136382750513336</v>
       </c>
     </row>
     <row r="217">
@@ -23037,7 +23037,7 @@
         <v>-0.00531320653011091</v>
       </c>
       <c r="U217" t="n">
-        <v>-0.0135472375507928</v>
+        <v>-0.0254750818948657</v>
       </c>
       <c r="V217" t="n">
         <v>-0.0931505497863472</v>
@@ -23064,16 +23064,16 @@
         <v>0.00783501589425306</v>
       </c>
       <c r="AD217" t="n">
-        <v>-0.665454487063821</v>
+        <v>-0.677382331407894</v>
       </c>
       <c r="AE217" t="n">
-        <v>-0.657619471169568</v>
+        <v>-0.669547315513641</v>
       </c>
       <c r="AF217" t="n">
-        <v>-0.390726461818591</v>
+        <v>-0.402654306162664</v>
       </c>
       <c r="AG217" t="n">
-        <v>-0.18182795111467</v>
+        <v>-0.191358284872453</v>
       </c>
     </row>
     <row r="218">
@@ -23138,7 +23138,7 @@
         <v>-0.00610661652048483</v>
       </c>
       <c r="U218" t="n">
-        <v>-0.0241454719256962</v>
+        <v>-0.0359789155547907</v>
       </c>
       <c r="V218" t="n">
         <v>-0.0608695565337825</v>
@@ -23165,16 +23165,16 @@
         <v>0.602005743925715</v>
       </c>
       <c r="AD218" t="n">
-        <v>-0.509959831225382</v>
+        <v>-0.521793274854476</v>
       </c>
       <c r="AE218" t="n">
-        <v>0.0920459127003337</v>
+        <v>0.0802124690712391</v>
       </c>
       <c r="AF218" t="n">
-        <v>0.0434464669583412</v>
+        <v>0.0316130233292466</v>
       </c>
       <c r="AG218" t="n">
-        <v>-0.180735221102806</v>
+        <v>-0.192956061571888</v>
       </c>
     </row>
     <row r="219">
@@ -23239,7 +23239,7 @@
         <v>-0.0158823846918232</v>
       </c>
       <c r="U219" t="n">
-        <v>-0.0226847108754202</v>
+        <v>-0.0341818927161563</v>
       </c>
       <c r="V219" t="n">
         <v>-0.0478764754681005</v>
@@ -23266,16 +23266,16 @@
         <v>0.450934968794792</v>
       </c>
       <c r="AD219" t="n">
-        <v>-0.489743163377176</v>
+        <v>-0.501240345217913</v>
       </c>
       <c r="AE219" t="n">
-        <v>-0.0388081945823848</v>
+        <v>-0.0503053764231209</v>
       </c>
       <c r="AF219" t="n">
-        <v>0.126107714536483</v>
+        <v>0.114610532695747</v>
       </c>
       <c r="AG219" t="n">
-        <v>-0.0165369504705569</v>
+        <v>-0.0284529377723018</v>
       </c>
     </row>
     <row r="220">
@@ -23340,7 +23340,7 @@
         <v>-0.0640343791044717</v>
       </c>
       <c r="U220" t="n">
-        <v>-0.0214494617073235</v>
+        <v>-0.0326368710859559</v>
       </c>
       <c r="V220" t="n">
         <v>-0.0421853173446674</v>
@@ -23367,16 +23367,16 @@
         <v>0.0627332815400061</v>
       </c>
       <c r="AD220" t="n">
-        <v>-0.110545030342413</v>
+        <v>-0.121732439721045</v>
       </c>
       <c r="AE220" t="n">
-        <v>-0.0478117488024066</v>
+        <v>-0.058999158181039</v>
       </c>
       <c r="AF220" t="n">
-        <v>0.443638225878817</v>
+        <v>0.432450816500185</v>
       </c>
       <c r="AG220" t="n">
-        <v>0.0556164863887638</v>
+        <v>0.0440050165906293</v>
       </c>
     </row>
     <row r="221">
@@ -23390,16 +23390,16 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.031391585660534</v>
+        <v>-0.4114727698878</v>
       </c>
       <c r="E221" t="n">
-        <v>0.00347244920644307</v>
+        <v>0.000360595272752562</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0104829751023772</v>
+        <v>0.00995963091861007</v>
       </c>
       <c r="G221" t="n">
-        <v>-0.063320733083605</v>
+        <v>-0.0844706143537932</v>
       </c>
       <c r="H221" t="n">
         <v>0.24768569587923</v>
@@ -23432,7 +23432,7 @@
         <v>-0.000165217824665831</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.0329737763182902</v>
+        <v>0.0030018590844838</v>
       </c>
       <c r="S221" t="n">
         <v>-0.139709918851527</v>
@@ -23453,31 +23453,31 @@
         <v>-0.000515959409119748</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.0941804638310284</v>
+        <v>0.14566849947566</v>
       </c>
       <c r="Z221" t="n">
-        <v>0.134412620807423</v>
+        <v>0.141240444805635</v>
       </c>
       <c r="AA221" t="n">
-        <v>-0.0174361613517138</v>
+        <v>-0.401152543696437</v>
       </c>
       <c r="AB221" t="n">
-        <v>-0.0772761573924252</v>
+        <v>-0.0947908405451559</v>
       </c>
       <c r="AC221" t="n">
         <v>0.0561753697081668</v>
       </c>
       <c r="AD221" t="n">
-        <v>0.058668367593151</v>
+        <v>0.152959862638768</v>
       </c>
       <c r="AE221" t="n">
-        <v>0.114843737301318</v>
+        <v>0.209135232346935</v>
       </c>
       <c r="AF221" t="n">
-        <v>0.0201314185571788</v>
+        <v>-0.286808151894657</v>
       </c>
       <c r="AG221" t="n">
-        <v>0.158330956482706</v>
+        <v>0.072966555157631</v>
       </c>
     </row>
     <row r="222">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0236006971164882</v>
+        <v>0.0232674812404854</v>
       </c>
       <c r="E222" t="n">
         <v>-0.292083866309056</v>
@@ -23533,7 +23533,7 @@
         <v>0</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.0300147224795544</v>
+        <v>-0.00011066820707617</v>
       </c>
       <c r="S222" t="n">
         <v>-0.0733403002059485</v>
@@ -23554,13 +23554,13 @@
         <v>-0.000674616292006824</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.0697059458459659</v>
+        <v>0.120644911095757</v>
       </c>
       <c r="Z222" t="n">
-        <v>0.00559264060950859</v>
+        <v>0.0122946385031186</v>
       </c>
       <c r="AA222" t="n">
-        <v>-0.280506655396895</v>
+        <v>-0.280839871272898</v>
       </c>
       <c r="AB222" t="n">
         <v>0.197003098225668</v>
@@ -23569,16 +23569,16 @@
         <v>-0.111807999657376</v>
       </c>
       <c r="AD222" t="n">
-        <v>-0.170960905170392</v>
+        <v>-0.0834158877545121</v>
       </c>
       <c r="AE222" t="n">
-        <v>-0.282768904827768</v>
+        <v>-0.195223887411888</v>
       </c>
       <c r="AF222" t="n">
-        <v>-0.366272461998995</v>
+        <v>-0.279060660459118</v>
       </c>
       <c r="AG222" t="n">
-        <v>0.0559012242433722</v>
+        <v>-0.0047018657894603</v>
       </c>
     </row>
     <row r="223">
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0359275224796063</v>
+        <v>0.0354202422828465</v>
       </c>
       <c r="E223" t="n">
         <v>-0.124067577281894</v>
@@ -23634,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.029221854751571</v>
+        <v>-0.00169879830952402</v>
       </c>
       <c r="S223" t="n">
         <v>-0.108362441108401</v>
@@ -23655,13 +23655,13 @@
         <v>-0.00137351962200549</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.0362307888127189</v>
+        <v>0.0866087690721384</v>
       </c>
       <c r="Z223" t="n">
-        <v>-0.0219008557337363</v>
+        <v>-0.0153198719651582</v>
       </c>
       <c r="AA223" t="n">
-        <v>-0.154348720562902</v>
+        <v>-0.154856000759662</v>
       </c>
       <c r="AB223" t="n">
         <v>0.0846706047173518</v>
@@ -23670,16 +23670,16 @@
         <v>0.0547249899075619</v>
       </c>
       <c r="AD223" t="n">
-        <v>-0.312079710908841</v>
+        <v>-0.227597690438797</v>
       </c>
       <c r="AE223" t="n">
-        <v>-0.257354721001279</v>
+        <v>-0.172872700531235</v>
       </c>
       <c r="AF223" t="n">
-        <v>-0.32703283684683</v>
+        <v>-0.243058096573545</v>
       </c>
       <c r="AG223" t="n">
-        <v>-0.0573839136024561</v>
+        <v>-0.0941190231067833</v>
       </c>
     </row>
     <row r="224">
@@ -23693,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0409495947917948</v>
+        <v>0.0403713944990614</v>
       </c>
       <c r="E224" t="n">
         <v>-0.0265151986773349</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.0286858310251437</v>
+        <v>-0.00348490257542355</v>
       </c>
       <c r="S224" t="n">
         <v>-0.0855114513575783</v>
@@ -23756,13 +23756,13 @@
         <v>-0.000384823756149899</v>
       </c>
       <c r="Y224" t="n">
-        <v>-0.0224448992896309</v>
+        <v>0.0273607305813384</v>
       </c>
       <c r="Z224" t="n">
-        <v>-0.023774436422408</v>
+        <v>-0.0173127244345928</v>
       </c>
       <c r="AA224" t="n">
-        <v>0.00339978838764798</v>
+        <v>0.00282158809491451</v>
       </c>
       <c r="AB224" t="n">
         <v>-0.0812068553073808</v>
@@ -23771,16 +23771,16 @@
         <v>0.102274588359752</v>
       </c>
       <c r="AD224" t="n">
-        <v>-0.270337857579206</v>
+        <v>-0.188869587270701</v>
       </c>
       <c r="AE224" t="n">
-        <v>-0.168063269219454</v>
+        <v>-0.0865949989109494</v>
       </c>
       <c r="AF224" t="n">
-        <v>-0.245870336139187</v>
+        <v>-0.164980266123416</v>
       </c>
       <c r="AG224" t="n">
-        <v>-0.229761054106957</v>
+        <v>-0.243476793762683</v>
       </c>
     </row>
     <row r="225">
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.0930311933781458</v>
+        <v>-0.091718261776752</v>
       </c>
       <c r="E225" t="n">
         <v>-0.0769043357876087</v>
@@ -23836,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.0184130337574695</v>
+        <v>-0.00408453659878072</v>
       </c>
       <c r="S225" t="n">
         <v>-0.048203058418983</v>
@@ -23857,13 +23857,13 @@
         <v>-0.000335727543465669</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.0010638984418776</v>
+        <v>0.00112321464089682</v>
       </c>
       <c r="Z225" t="n">
-        <v>-0.0185052642912797</v>
+        <v>-0.0186841536548799</v>
       </c>
       <c r="AA225" t="n">
-        <v>-0.180821260818043</v>
+        <v>-0.179508329216649</v>
       </c>
       <c r="AB225" t="n">
         <v>-0.0323038208918103</v>
@@ -23872,16 +23872,16 @@
         <v>0.00332307591013326</v>
       </c>
       <c r="AD225" t="n">
-        <v>-0.232104415156087</v>
+        <v>-0.217895491161979</v>
       </c>
       <c r="AE225" t="n">
-        <v>-0.228781339245954</v>
+        <v>-0.214572415251846</v>
       </c>
       <c r="AF225" t="n">
-        <v>-0.441906420955807</v>
+        <v>-0.426384565360305</v>
       </c>
       <c r="AG225" t="n">
-        <v>-0.345270513985203</v>
+        <v>-0.278370897129095</v>
       </c>
     </row>
     <row r="226">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0753935775776315</v>
+        <v>-0.0743294928509997</v>
       </c>
       <c r="E226" t="n">
         <v>-0.0236060845937303</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.0109991995086989</v>
+        <v>-0.00379525392257829</v>
       </c>
       <c r="S226" t="n">
         <v>-0.0162698822111618</v>
@@ -23958,13 +23958,13 @@
         <v>-0.000329148836120119</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.0238745805997365</v>
+        <v>0.024116023397891</v>
       </c>
       <c r="Z226" t="n">
-        <v>-0.0134345021059246</v>
+        <v>-0.0135889398439226</v>
       </c>
       <c r="AA226" t="n">
-        <v>-0.10977124062902</v>
+        <v>-0.108707155902388</v>
       </c>
       <c r="AB226" t="n">
         <v>-0.0734490859382708</v>
@@ -23973,16 +23973,16 @@
         <v>0.232835023253397</v>
       </c>
       <c r="AD226" t="n">
-        <v>-0.155338937152705</v>
+        <v>-0.148047986506428</v>
       </c>
       <c r="AE226" t="n">
-        <v>0.0774960861006924</v>
+        <v>0.0847870367469694</v>
       </c>
       <c r="AF226" t="n">
-        <v>-0.105724240466598</v>
+        <v>-0.0973692050936892</v>
       </c>
       <c r="AG226" t="n">
-        <v>-0.280133458602104</v>
+        <v>-0.232948033287738</v>
       </c>
     </row>
     <row r="227">
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.0503941911015993</v>
+        <v>-0.0496828752189038</v>
       </c>
       <c r="E227" t="n">
         <v>-0.0594753097103773</v>
@@ -24038,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.0109002025948213</v>
+        <v>-0.00383339186947884</v>
       </c>
       <c r="S227" t="n">
         <v>-0.0122910873627813</v>
@@ -24059,13 +24059,13 @@
         <v>-0.000323010465996809</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.0420958625511059</v>
+        <v>0.0425143841462861</v>
       </c>
       <c r="Z227" t="n">
-        <v>-0.0103877957513432</v>
+        <v>-0.0105189084696478</v>
       </c>
       <c r="AA227" t="n">
-        <v>-0.120549476875886</v>
+        <v>-0.119838160993191</v>
       </c>
       <c r="AB227" t="n">
         <v>-0.0456955519583691</v>
@@ -24074,16 +24074,16 @@
         <v>0.198952250587137</v>
       </c>
       <c r="AD227" t="n">
-        <v>-0.123585305259033</v>
+        <v>-0.116231085656815</v>
       </c>
       <c r="AE227" t="n">
-        <v>0.0753669453281036</v>
+        <v>0.0827211649303217</v>
       </c>
       <c r="AF227" t="n">
-        <v>-0.0908780835061518</v>
+        <v>-0.0828125480212383</v>
       </c>
       <c r="AG227" t="n">
-        <v>-0.221094770266935</v>
+        <v>-0.192886646149661</v>
       </c>
     </row>
     <row r="228">
@@ -24097,7 +24097,7 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.0739285901820486</v>
+        <v>-0.0728851762381022</v>
       </c>
       <c r="E228" t="n">
         <v>-0.0105414891276689</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.00687970618661327</v>
+        <v>-0.00417762115088038</v>
       </c>
       <c r="S228" t="n">
         <v>-0.0692568362894774</v>
@@ -24160,13 +24160,13 @@
         <v>-0.000317002042049541</v>
       </c>
       <c r="Y228" t="n">
-        <v>0.060110052821738</v>
+        <v>0.0607038067078847</v>
       </c>
       <c r="Z228" t="n">
-        <v>-0.00740889682725454</v>
+        <v>-0.00751724249365981</v>
       </c>
       <c r="AA228" t="n">
-        <v>-0.0951187949864374</v>
+        <v>-0.094075381042491</v>
       </c>
       <c r="AB228" t="n">
         <v>-0.0963096971788868</v>
@@ -24175,16 +24175,16 @@
         <v>0.112250618810872</v>
       </c>
       <c r="AD228" t="n">
-        <v>-0.154399126798732</v>
+        <v>-0.151211633543258</v>
       </c>
       <c r="AE228" t="n">
-        <v>-0.0421485079878603</v>
+        <v>-0.038961014732386</v>
       </c>
       <c r="AF228" t="n">
-        <v>-0.233577000153184</v>
+        <v>-0.229346092953764</v>
       </c>
       <c r="AG228" t="n">
-        <v>-0.218021436270434</v>
+        <v>-0.208978102857248</v>
       </c>
     </row>
     <row r="229">
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>-23.5773414747173</v>
+        <v>-23.276817072683</v>
       </c>
       <c r="E229" t="n">
         <v>-5.69987135799386</v>
@@ -24240,7 +24240,7 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.059794889523257</v>
+        <v>-0.0942214395959984</v>
       </c>
       <c r="S229" t="n">
         <v>-0.0587685774880109</v>
@@ -24261,13 +24261,13 @@
         <v>-0.000251367488846022</v>
       </c>
       <c r="Y229" t="n">
-        <v>-5.27645203455504</v>
+        <v>-5.32613213197127</v>
       </c>
       <c r="Z229" t="n">
-        <v>-0.900618713352841</v>
+        <v>-0.907242079963821</v>
       </c>
       <c r="AA229" t="n">
-        <v>-30.2342584175923</v>
+        <v>-29.9337340155581</v>
       </c>
       <c r="AB229" t="n">
         <v>-29.8536462593804</v>
@@ -24276,16 +24276,16 @@
         <v>10.108921167149</v>
       </c>
       <c r="AD229" t="n">
-        <v>-13.3738140352442</v>
+        <v>-13.4645440493442</v>
       </c>
       <c r="AE229" t="n">
-        <v>-3.26489286809525</v>
+        <v>-3.35562288219521</v>
       </c>
       <c r="AF229" t="n">
-        <v>-63.352797545068</v>
+        <v>-63.1430031571337</v>
       </c>
       <c r="AG229" t="n">
-        <v>-15.9457442172985</v>
+        <v>-15.8881327508006</v>
       </c>
     </row>
     <row r="230">
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.0499922231761984</v>
+        <v>-0.079080195877923</v>
       </c>
       <c r="S230" t="n">
         <v>-0.0535659095970531</v>
@@ -24362,10 +24362,10 @@
         <v>-0.000246713502349838</v>
       </c>
       <c r="Y230" t="n">
-        <v>-5.24402816423081</v>
+        <v>-5.29341288025946</v>
       </c>
       <c r="Z230" t="n">
-        <v>-0.890757577758627</v>
+        <v>-0.897295554322208</v>
       </c>
       <c r="AA230" t="n">
         <v>0</v>
@@ -24377,16 +24377,16 @@
         <v>12.0602263661855</v>
       </c>
       <c r="AD230" t="n">
-        <v>-13.3115684811875</v>
+        <v>-13.3965791464814</v>
       </c>
       <c r="AE230" t="n">
-        <v>-1.25134211500202</v>
+        <v>-1.33635278029598</v>
       </c>
       <c r="AF230" t="n">
-        <v>-1.25134211500202</v>
+        <v>-1.33635278029598</v>
       </c>
       <c r="AG230" t="n">
-        <v>-16.2321486859323</v>
+        <v>-16.1978786446012</v>
       </c>
     </row>
     <row r="231">
@@ -24442,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.0462774125205456</v>
+        <v>-0.0731915019861251</v>
       </c>
       <c r="S231" t="n">
         <v>-0.048583331612928</v>
@@ -24463,10 +24463,10 @@
         <v>-0.000242147297890849</v>
       </c>
       <c r="Y231" t="n">
-        <v>-5.21280982697155</v>
+        <v>-5.26191072770966</v>
       </c>
       <c r="Z231" t="n">
-        <v>-0.881115031003754</v>
+        <v>-0.88756949870864</v>
       </c>
       <c r="AA231" t="n">
         <v>0</v>
@@ -24478,16 +24478,16 @@
         <v>6.06872821190925</v>
       </c>
       <c r="AD231" t="n">
-        <v>-13.1585692667882</v>
+        <v>-13.2410387246968</v>
       </c>
       <c r="AE231" t="n">
-        <v>-7.089841054879</v>
+        <v>-7.17231051278757</v>
       </c>
       <c r="AF231" t="n">
-        <v>-7.089841054879</v>
+        <v>-7.17231051278757</v>
       </c>
       <c r="AG231" t="n">
-        <v>-17.9818894287756</v>
+        <v>-17.9702531357928</v>
       </c>
     </row>
     <row r="232">
@@ -24543,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.0432817063043101</v>
+        <v>-0.0674683564506728</v>
       </c>
       <c r="S232" t="n">
         <v>-0.0425068353612335</v>
@@ -24564,10 +24564,10 @@
         <v>-0.00023772569720526</v>
       </c>
       <c r="Y232" t="n">
-        <v>-5.18360304265507</v>
+        <v>-5.23243913238546</v>
       </c>
       <c r="Z232" t="n">
-        <v>-0.871826326761027</v>
+        <v>-0.878200141219398</v>
       </c>
       <c r="AA232" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>6.00389505487207</v>
       </c>
       <c r="AD232" t="n">
-        <v>-13.0140396224412</v>
+        <v>-13.0934361767763</v>
       </c>
       <c r="AE232" t="n">
-        <v>-7.0101445675691</v>
+        <v>-7.08954112190422</v>
       </c>
       <c r="AF232" t="n">
-        <v>-7.0101445675691</v>
+        <v>-7.08954112190422</v>
       </c>
       <c r="AG232" t="n">
-        <v>-19.6760313206295</v>
+        <v>-19.6853018930304</v>
       </c>
     </row>
     <row r="233">
@@ -24644,7 +24644,7 @@
         <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.0257980653677881</v>
+        <v>-0.0401401587257211</v>
       </c>
       <c r="S233" t="n">
         <v>-0.042801883797039</v>
@@ -24680,16 +24680,16 @@
         <v>5.94157825042425</v>
       </c>
       <c r="AD233" t="n">
-        <v>-0.0714184556655728</v>
+        <v>-0.0857605490235058</v>
       </c>
       <c r="AE233" t="n">
-        <v>5.87015979475868</v>
+        <v>5.85581770140075</v>
       </c>
       <c r="AF233" t="n">
-        <v>5.87015979475868</v>
+        <v>5.85581770140075</v>
       </c>
       <c r="AG233" t="n">
-        <v>-2.37029198567286</v>
+        <v>-2.43559667839676</v>
       </c>
     </row>
     <row r="234">
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.0139710990906705</v>
+        <v>-0.0221574078722031</v>
       </c>
       <c r="S234" t="n">
         <v>-0.0415522314452188</v>
@@ -24781,16 +24781,16 @@
         <v>5.91543599307727</v>
       </c>
       <c r="AD234" t="n">
-        <v>-0.0580765422848684</v>
+        <v>-0.066262851066401</v>
       </c>
       <c r="AE234" t="n">
-        <v>5.8573594507924</v>
+        <v>5.84917314201087</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.8573594507924</v>
+        <v>5.84917314201087</v>
       </c>
       <c r="AG234" t="n">
-        <v>-0.593116594224253</v>
+        <v>-0.639215197820048</v>
       </c>
     </row>
     <row r="235">
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.013837663246008</v>
+        <v>-0.0217557388152767</v>
       </c>
       <c r="S235" t="n">
         <v>-0.0388289758359139</v>
@@ -24882,16 +24882,16 @@
         <v>5.8534175922361</v>
       </c>
       <c r="AD235" t="n">
-        <v>-0.0544567795607631</v>
+        <v>-0.0623748551300318</v>
       </c>
       <c r="AE235" t="n">
-        <v>5.79896081267534</v>
+        <v>5.79104273710607</v>
       </c>
       <c r="AF235" t="n">
-        <v>5.79896081267534</v>
+        <v>5.79104273710607</v>
       </c>
       <c r="AG235" t="n">
-        <v>2.62908387266433</v>
+        <v>2.60162311465336</v>
       </c>
     </row>
     <row r="236">
@@ -24947,7 +24947,7 @@
         <v>0</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.0112676159005676</v>
+        <v>-0.0171168112138131</v>
       </c>
       <c r="S236" t="n">
         <v>-0.0305839394865504</v>
@@ -24983,16 +24983,16 @@
         <v>5.79044641589763</v>
       </c>
       <c r="AD236" t="n">
-        <v>-0.0423273273519098</v>
+        <v>-0.0481765226651554</v>
       </c>
       <c r="AE236" t="n">
-        <v>5.74811908854572</v>
+        <v>5.74226989323248</v>
       </c>
       <c r="AF236" t="n">
-        <v>5.74811908854572</v>
+        <v>5.74226989323248</v>
       </c>
       <c r="AG236" t="n">
-        <v>5.81864978669304</v>
+        <v>5.80957586843754</v>
       </c>
     </row>
     <row r="237">
@@ -25093,7 +25093,7 @@
         <v>0.258295204253789</v>
       </c>
       <c r="AG237" t="n">
-        <v>4.41568363906681</v>
+        <v>4.4101952441508</v>
       </c>
     </row>
     <row r="238">
@@ -25194,7 +25194,7 @@
         <v>0.252802603075797</v>
       </c>
       <c r="AG238" t="n">
-        <v>3.01454442713766</v>
+        <v>3.01110260941703</v>
       </c>
     </row>
     <row r="239">
@@ -25295,7 +25295,7 @@
         <v>0.2484342940693</v>
       </c>
       <c r="AG239" t="n">
-        <v>1.62691279748615</v>
+        <v>1.62545049865784</v>
       </c>
     </row>
     <row r="240">
@@ -25396,7 +25396,7 @@
         <v>0.26243264404644</v>
       </c>
       <c r="AG240" t="n">
-        <v>0.255491186361334</v>
+        <v>0.255491186361328</v>
       </c>
     </row>
     <row r="241">
@@ -25497,7 +25497,7 @@
         <v>-0.0100723454820817</v>
       </c>
       <c r="AG241" t="n">
-        <v>0.188399298927366</v>
+        <v>0.18839929892736</v>
       </c>
     </row>
     <row r="242">
@@ -25598,7 +25598,7 @@
         <v>-0.00957395116238935</v>
       </c>
       <c r="AG242" t="n">
-        <v>0.12280516036782</v>
+        <v>0.122805160367814</v>
       </c>
     </row>
     <row r="243">
@@ -25699,7 +25699,7 @@
         <v>-0.00930120550378666</v>
       </c>
       <c r="AG243" t="n">
-        <v>0.0583712854745483</v>
+        <v>0.0583712854745423</v>
       </c>
     </row>
     <row r="244">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="AG244" t="n">
-        <v>-0.00723687553706165</v>
+        <v>-0.00723687553706764</v>
       </c>
     </row>
     <row r="245">
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AG245" t="n">
-        <v>-0.00471878916654123</v>
+        <v>-0.00471878916654722</v>
       </c>
     </row>
     <row r="246">
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AG246" t="n">
-        <v>-0.00232530137594389</v>
+        <v>-0.00232530137594988</v>
       </c>
     </row>
     <row r="247">
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="248">
@@ -26204,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="AG248" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="249">
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="250">
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="AG250" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="251">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="AG251" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="252">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="253">
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="AG253" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="254">
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="255">
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="AG255" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="256">
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="AG256" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="257">
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="AG257" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="258">
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="AG258" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="259">
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AG259" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
     <row r="260">
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
-        <v>0.00000000000000277555756156289</v>
+        <v>-0.00000000000000321964677141295</v>
       </c>
     </row>
   </sheetData>
